--- a/4.0/OWASP Application Security Verification Standard 4.0-cn.xlsx
+++ b/4.0/OWASP Application Security Verification Standard 4.0-cn.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniel/Documents/ASVS/4.0/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\OWASP-ASVS\4.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0167379E-EB3B-2C44-9F67-D56A77B5E81F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8917E6EB-E224-4A4B-840B-6D8CF06BA232}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4300" yWindow="1200" windowWidth="28040" windowHeight="17440" activeTab="14" xr2:uid="{944E847E-EBA8-6540-9690-A5DBEE82076C}"/>
+    <workbookView xWindow="28695" yWindow="-15990" windowWidth="29040" windowHeight="15990" activeTab="3" xr2:uid="{944E847E-EBA8-6540-9690-A5DBEE82076C}"/>
   </bookViews>
   <sheets>
     <sheet name="Introduction" sheetId="1" r:id="rId1"/>
@@ -65,7 +65,7 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
   <connection id="1" xr16:uid="{6402B45F-45C7-0149-A555-FCC48A8DE2C2}" name="OWASP Application Security Verification Standard 4.0-en1" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/daniel/Documents/ASVS/4.0/OWASP Application Security Verification Standard 4.0-en.csv" tab="0" comma="1">
+    <textPr sourceFile="/Users/daniel/Documents/ASVS/4.0/OWASP Application Security Verification Standard 4.0-en.csv" tab="0" comma="1">
       <textFields count="9">
         <textField/>
         <textField/>
@@ -80,7 +80,7 @@
     </textPr>
   </connection>
   <connection id="2" xr16:uid="{D70907A5-1B54-6D48-9ADE-781483C50F44}" name="OWASP Application Security Verification Standard 4.0-en11" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/daniel/Documents/ASVS/4.0/OWASP Application Security Verification Standard 4.0-en.csv" tab="0" comma="1">
+    <textPr sourceFile="/Users/daniel/Documents/ASVS/4.0/OWASP Application Security Verification Standard 4.0-en.csv" tab="0" comma="1">
       <textFields count="9">
         <textField/>
         <textField/>
@@ -95,7 +95,7 @@
     </textPr>
   </connection>
   <connection id="3" xr16:uid="{5E038325-9163-9545-852B-746B3274B0FB}" name="OWASP Application Security Verification Standard 4.0-en111" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/daniel/Documents/ASVS/4.0/OWASP Application Security Verification Standard 4.0-en.csv" tab="0" comma="1">
+    <textPr sourceFile="/Users/daniel/Documents/ASVS/4.0/OWASP Application Security Verification Standard 4.0-en.csv" tab="0" comma="1">
       <textFields count="9">
         <textField/>
         <textField/>
@@ -110,7 +110,7 @@
     </textPr>
   </connection>
   <connection id="4" xr16:uid="{1ED78002-CDF8-A94D-9D6D-CCF38E892978}" name="OWASP Application Security Verification Standard 4.0-en1111" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/daniel/Documents/ASVS/4.0/OWASP Application Security Verification Standard 4.0-en.csv" tab="0" comma="1">
+    <textPr sourceFile="/Users/daniel/Documents/ASVS/4.0/OWASP Application Security Verification Standard 4.0-en.csv" tab="0" comma="1">
       <textFields count="9">
         <textField/>
         <textField/>
@@ -125,7 +125,7 @@
     </textPr>
   </connection>
   <connection id="5" xr16:uid="{D979CEB3-BB85-CA48-8C0B-9973D7F2C3C9}" name="OWASP Application Security Verification Standard 4.0-en11111" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/daniel/Documents/ASVS/4.0/OWASP Application Security Verification Standard 4.0-en.csv" tab="0" comma="1">
+    <textPr sourceFile="/Users/daniel/Documents/ASVS/4.0/OWASP Application Security Verification Standard 4.0-en.csv" tab="0" comma="1">
       <textFields count="9">
         <textField/>
         <textField/>
@@ -140,7 +140,7 @@
     </textPr>
   </connection>
   <connection id="6" xr16:uid="{0E5CD02E-9C4B-0A49-BED0-947676E12FB1}" name="OWASP Application Security Verification Standard 4.0-en111111" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/daniel/Documents/ASVS/4.0/OWASP Application Security Verification Standard 4.0-en.csv" tab="0" comma="1">
+    <textPr sourceFile="/Users/daniel/Documents/ASVS/4.0/OWASP Application Security Verification Standard 4.0-en.csv" tab="0" comma="1">
       <textFields count="9">
         <textField/>
         <textField/>
@@ -155,7 +155,7 @@
     </textPr>
   </connection>
   <connection id="7" xr16:uid="{9B04BECD-2B39-DD4B-A916-3CCFC51221F1}" name="OWASP Application Security Verification Standard 4.0-en1111111" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/daniel/Documents/ASVS/4.0/OWASP Application Security Verification Standard 4.0-en.csv" tab="0" comma="1">
+    <textPr sourceFile="/Users/daniel/Documents/ASVS/4.0/OWASP Application Security Verification Standard 4.0-en.csv" tab="0" comma="1">
       <textFields count="9">
         <textField/>
         <textField/>
@@ -170,7 +170,7 @@
     </textPr>
   </connection>
   <connection id="8" xr16:uid="{D1154F31-962D-B54D-B378-9A1FEE3048C4}" name="OWASP Application Security Verification Standard 4.0-en11111111" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/daniel/Documents/ASVS/4.0/OWASP Application Security Verification Standard 4.0-en.csv" tab="0" comma="1">
+    <textPr sourceFile="/Users/daniel/Documents/ASVS/4.0/OWASP Application Security Verification Standard 4.0-en.csv" tab="0" comma="1">
       <textFields count="9">
         <textField/>
         <textField/>
@@ -185,7 +185,7 @@
     </textPr>
   </connection>
   <connection id="9" xr16:uid="{A99F4D43-FB04-7046-A854-666139EB234E}" name="OWASP Application Security Verification Standard 4.0-en111111111" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/daniel/Documents/ASVS/4.0/OWASP Application Security Verification Standard 4.0-en.csv" tab="0" comma="1">
+    <textPr sourceFile="/Users/daniel/Documents/ASVS/4.0/OWASP Application Security Verification Standard 4.0-en.csv" tab="0" comma="1">
       <textFields count="9">
         <textField/>
         <textField/>
@@ -200,7 +200,7 @@
     </textPr>
   </connection>
   <connection id="10" xr16:uid="{AFF47841-D558-6442-AFBB-A73136617064}" name="OWASP Application Security Verification Standard 4.0-en1111111111" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/daniel/Documents/ASVS/4.0/OWASP Application Security Verification Standard 4.0-en.csv" tab="0" comma="1">
+    <textPr sourceFile="/Users/daniel/Documents/ASVS/4.0/OWASP Application Security Verification Standard 4.0-en.csv" tab="0" comma="1">
       <textFields count="9">
         <textField/>
         <textField/>
@@ -215,7 +215,7 @@
     </textPr>
   </connection>
   <connection id="11" xr16:uid="{9E323F11-0481-BE41-B51D-AAC2C8CBC994}" name="OWASP Application Security Verification Standard 4.0-en11111111111" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/daniel/Documents/ASVS/4.0/OWASP Application Security Verification Standard 4.0-en.csv" tab="0" comma="1">
+    <textPr sourceFile="/Users/daniel/Documents/ASVS/4.0/OWASP Application Security Verification Standard 4.0-en.csv" tab="0" comma="1">
       <textFields count="9">
         <textField/>
         <textField/>
@@ -230,7 +230,7 @@
     </textPr>
   </connection>
   <connection id="12" xr16:uid="{06E8F282-B7BD-3344-B401-60DB75EF1D52}" name="OWASP Application Security Verification Standard 4.0-en11111111112" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/daniel/Documents/ASVS/4.0/OWASP Application Security Verification Standard 4.0-en.csv" tab="0" comma="1">
+    <textPr sourceFile="/Users/daniel/Documents/ASVS/4.0/OWASP Application Security Verification Standard 4.0-en.csv" tab="0" comma="1">
       <textFields count="9">
         <textField/>
         <textField/>
@@ -245,7 +245,7 @@
     </textPr>
   </connection>
   <connection id="13" xr16:uid="{555B8440-B76B-B049-B8FF-5F0B9AD64F9B}" name="OWASP Application Security Verification Standard 4.0-en111111111121" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/daniel/Documents/ASVS/4.0/OWASP Application Security Verification Standard 4.0-en.csv" tab="0" comma="1">
+    <textPr sourceFile="/Users/daniel/Documents/ASVS/4.0/OWASP Application Security Verification Standard 4.0-en.csv" tab="0" comma="1">
       <textFields count="9">
         <textField/>
         <textField/>
@@ -260,7 +260,7 @@
     </textPr>
   </connection>
   <connection id="14" xr16:uid="{43FF040F-A0B3-D94C-B6D2-F5840C536D39}" name="OWASP Application Security Verification Standard 4.0-en1111111111211" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/daniel/Documents/ASVS/4.0/OWASP Application Security Verification Standard 4.0-en.csv" tab="0" comma="1">
+    <textPr sourceFile="/Users/daniel/Documents/ASVS/4.0/OWASP Application Security Verification Standard 4.0-en.csv" tab="0" comma="1">
       <textFields count="9">
         <textField/>
         <textField/>
@@ -2278,7 +2278,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2286,7 +2286,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2297,6 +2296,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2956,108 +2965,108 @@
       <selection activeCell="A4" sqref="A4:XFD37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="80.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="8.1640625" customWidth="1"/>
+    <col min="1" max="1" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="80.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="8.125" customWidth="1"/>
     <col min="8" max="8" width="7" customWidth="1"/>
-    <col min="9" max="9" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="5"/>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-    </row>
-    <row r="3" spans="1:9" ht="49" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-    </row>
-    <row r="4" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="17" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="18" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="19" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="20" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="21" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="22" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="23" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="24" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="25" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="26" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="27" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="28" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="29" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="30" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="31" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="32" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="33" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="34" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="35" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="36" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="37" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="38" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="39" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="40" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="41" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="42" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="43" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="44" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="45" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="46" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="47" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="48" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="49" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="50" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="51" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="52" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="53" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="54" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="55" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="56" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="57" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="58" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="59" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="60" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="15"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+    </row>
+    <row r="3" spans="1:9" ht="48.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+    </row>
+    <row r="4" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="21" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="23" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="24" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="25" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="26" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="27" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="28" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="29" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="30" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="31" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="32" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="33" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="34" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="35" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="36" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="37" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="38" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="39" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="40" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="41" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="42" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="43" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="44" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="45" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="46" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="47" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="48" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="49" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="50" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="51" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="52" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="53" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="54" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="55" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="56" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="57" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="58" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="59" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="60" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:I3"/>
@@ -3077,21 +3086,21 @@
       <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="80.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.1640625" style="9" customWidth="1"/>
-    <col min="7" max="7" width="8.1640625" style="11" customWidth="1"/>
+    <col min="1" max="1" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="80.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.375" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.125" style="8" customWidth="1"/>
+    <col min="7" max="7" width="8.125" style="10" customWidth="1"/>
     <col min="8" max="8" width="7" customWidth="1"/>
     <col min="9" max="9" width="10" customWidth="1"/>
-    <col min="12" max="12" width="42.1640625" customWidth="1"/>
+    <col min="12" max="12" width="42.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3104,13 +3113,13 @@
       <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="9" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="3" t="s">
@@ -3129,7 +3138,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="68" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>361</v>
       </c>
@@ -3142,13 +3151,13 @@
       <c r="D2" s="1" t="s">
         <v>609</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="11" t="s">
+      <c r="E2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H2">
@@ -3156,7 +3165,7 @@
       </c>
       <c r="L2" s="1"/>
     </row>
-    <row r="3" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>361</v>
       </c>
@@ -3169,13 +3178,13 @@
       <c r="D3" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="E3" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="11" t="s">
+      <c r="E3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H3">
@@ -3183,7 +3192,7 @@
       </c>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>361</v>
       </c>
@@ -3196,13 +3205,13 @@
       <c r="D4" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="11" t="s">
+      <c r="E4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H4">
@@ -3210,7 +3219,7 @@
       </c>
       <c r="L4" s="1"/>
     </row>
-    <row r="5" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>361</v>
       </c>
@@ -3223,10 +3232,10 @@
       <c r="D5" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="F5" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="11" t="s">
+      <c r="F5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H5">
@@ -3234,7 +3243,7 @@
       </c>
       <c r="L5" s="1"/>
     </row>
-    <row r="6" spans="1:12" ht="68" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" ht="63" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>361</v>
       </c>
@@ -3247,10 +3256,10 @@
       <c r="D6" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="F6" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="11" t="s">
+      <c r="F6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H6">
@@ -3258,7 +3267,7 @@
       </c>
       <c r="L6" s="1"/>
     </row>
-    <row r="7" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>361</v>
       </c>
@@ -3271,10 +3280,10 @@
       <c r="D7" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="F7" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="11" t="s">
+      <c r="F7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H7">
@@ -3282,7 +3291,7 @@
       </c>
       <c r="L7" s="1"/>
     </row>
-    <row r="8" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>361</v>
       </c>
@@ -3295,10 +3304,10 @@
       <c r="D8" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="F8" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="11" t="s">
+      <c r="F8" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H8">
@@ -3306,7 +3315,7 @@
       </c>
       <c r="L8" s="1"/>
     </row>
-    <row r="9" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>361</v>
       </c>
@@ -3319,7 +3328,7 @@
       <c r="D9" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="G9" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H9">
@@ -3327,106 +3336,106 @@
       </c>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L10" s="1"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L11" s="1"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L12" s="1"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L13" s="1"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L14" s="1"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L15" s="1"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L16" s="1"/>
     </row>
-    <row r="17" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L17" s="1"/>
     </row>
-    <row r="18" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L18" s="1"/>
     </row>
-    <row r="19" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L19" s="1"/>
     </row>
-    <row r="20" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L20" s="1"/>
     </row>
-    <row r="21" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L21" s="1"/>
     </row>
-    <row r="22" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L22" s="1"/>
     </row>
-    <row r="23" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L23" s="1"/>
     </row>
-    <row r="24" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L24" s="1"/>
     </row>
-    <row r="25" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L25" s="1"/>
     </row>
-    <row r="26" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L26" s="1"/>
     </row>
-    <row r="27" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L27" s="1"/>
     </row>
-    <row r="28" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L28" s="1"/>
     </row>
-    <row r="29" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L29" s="1"/>
     </row>
-    <row r="30" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L30" s="1"/>
     </row>
-    <row r="31" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L31" s="1"/>
     </row>
-    <row r="32" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L32" s="1"/>
     </row>
-    <row r="33" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L33" s="1"/>
     </row>
-    <row r="34" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L34" s="1"/>
     </row>
-    <row r="35" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="35" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L35" s="1"/>
     </row>
-    <row r="36" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="36" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L36" s="1"/>
     </row>
-    <row r="37" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L37" s="1"/>
     </row>
-    <row r="38" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L38" s="1"/>
     </row>
-    <row r="39" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L39" s="1"/>
     </row>
-    <row r="40" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="40" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L40" s="1"/>
     </row>
-    <row r="41" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="41" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L41" s="1"/>
     </row>
-    <row r="42" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L42" s="1"/>
     </row>
-    <row r="43" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="43" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L43" s="1"/>
     </row>
   </sheetData>
@@ -3460,21 +3469,21 @@
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="80.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.1640625" style="9" customWidth="1"/>
-    <col min="7" max="7" width="8.1640625" style="11" customWidth="1"/>
+    <col min="1" max="1" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="80.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.375" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.125" style="8" customWidth="1"/>
+    <col min="7" max="7" width="8.125" style="10" customWidth="1"/>
     <col min="8" max="8" width="7" customWidth="1"/>
-    <col min="9" max="9" width="9.33203125" customWidth="1"/>
-    <col min="12" max="12" width="42.1640625" customWidth="1"/>
+    <col min="9" max="9" width="9.375" customWidth="1"/>
+    <col min="12" max="12" width="42.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3487,13 +3496,13 @@
       <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="9" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="3" t="s">
@@ -3512,7 +3521,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>377</v>
       </c>
@@ -3525,7 +3534,7 @@
       <c r="D2" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H2">
@@ -3533,7 +3542,7 @@
       </c>
       <c r="L2" s="1"/>
     </row>
-    <row r="3" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>377</v>
       </c>
@@ -3546,10 +3555,10 @@
       <c r="D3" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="F3" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="11" t="s">
+      <c r="F3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H3">
@@ -3557,7 +3566,7 @@
       </c>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>377</v>
       </c>
@@ -3570,10 +3579,10 @@
       <c r="D4" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="F4" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="11" t="s">
+      <c r="F4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H4">
@@ -3581,7 +3590,7 @@
       </c>
       <c r="L4" s="1"/>
     </row>
-    <row r="5" spans="1:12" ht="68" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" ht="63" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>377</v>
       </c>
@@ -3594,7 +3603,7 @@
       <c r="D5" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H5">
@@ -3602,7 +3611,7 @@
       </c>
       <c r="L5" s="1"/>
     </row>
-    <row r="6" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>377</v>
       </c>
@@ -3615,7 +3624,7 @@
       <c r="D6" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="G6" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H6">
@@ -3623,7 +3632,7 @@
       </c>
       <c r="L6" s="1"/>
     </row>
-    <row r="7" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>377</v>
       </c>
@@ -3636,7 +3645,7 @@
       <c r="D7" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="G7" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H7">
@@ -3644,7 +3653,7 @@
       </c>
       <c r="L7" s="1"/>
     </row>
-    <row r="8" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>377</v>
       </c>
@@ -3657,7 +3666,7 @@
       <c r="D8" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="G8" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H8">
@@ -3665,7 +3674,7 @@
       </c>
       <c r="L8" s="1"/>
     </row>
-    <row r="9" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>377</v>
       </c>
@@ -3678,13 +3687,13 @@
       <c r="D9" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" s="11" t="s">
+      <c r="E9" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H9">
@@ -3692,7 +3701,7 @@
       </c>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>377</v>
       </c>
@@ -3705,13 +3714,13 @@
       <c r="D10" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="11" t="s">
+      <c r="E10" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H10">
@@ -3719,7 +3728,7 @@
       </c>
       <c r="L10" s="1"/>
     </row>
-    <row r="11" spans="1:12" ht="102" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>377</v>
       </c>
@@ -3732,13 +3741,13 @@
       <c r="D11" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" s="11" t="s">
+      <c r="E11" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H11">
@@ -3746,100 +3755,100 @@
       </c>
       <c r="L11" s="1"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L12" s="1"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L13" s="1"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L14" s="1"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L15" s="1"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L16" s="1"/>
     </row>
-    <row r="17" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L17" s="1"/>
     </row>
-    <row r="18" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L18" s="1"/>
     </row>
-    <row r="19" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L19" s="1"/>
     </row>
-    <row r="20" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L20" s="1"/>
     </row>
-    <row r="21" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L21" s="1"/>
     </row>
-    <row r="22" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L22" s="1"/>
     </row>
-    <row r="23" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L23" s="1"/>
     </row>
-    <row r="24" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L24" s="1"/>
     </row>
-    <row r="25" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L25" s="1"/>
     </row>
-    <row r="26" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L26" s="1"/>
     </row>
-    <row r="27" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L27" s="1"/>
     </row>
-    <row r="28" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L28" s="1"/>
     </row>
-    <row r="29" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L29" s="1"/>
     </row>
-    <row r="30" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L30" s="1"/>
     </row>
-    <row r="31" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L31" s="1"/>
     </row>
-    <row r="32" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L32" s="1"/>
     </row>
-    <row r="33" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L33" s="1"/>
     </row>
-    <row r="34" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L34" s="1"/>
     </row>
-    <row r="35" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="35" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L35" s="1"/>
     </row>
-    <row r="36" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="36" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L36" s="1"/>
     </row>
-    <row r="37" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L37" s="1"/>
     </row>
-    <row r="38" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L38" s="1"/>
     </row>
-    <row r="39" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L39" s="1"/>
     </row>
-    <row r="40" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="40" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L40" s="1"/>
     </row>
-    <row r="41" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="41" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L41" s="1"/>
     </row>
-    <row r="42" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L42" s="1"/>
     </row>
-    <row r="43" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="43" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L43" s="1"/>
     </row>
   </sheetData>
@@ -3873,21 +3882,21 @@
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="80.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.1640625" style="9" customWidth="1"/>
-    <col min="7" max="7" width="8.1640625" style="11" customWidth="1"/>
+    <col min="1" max="1" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="80.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.375" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.125" style="8" customWidth="1"/>
+    <col min="7" max="7" width="8.125" style="10" customWidth="1"/>
     <col min="8" max="8" width="7" customWidth="1"/>
-    <col min="9" max="9" width="9.1640625" customWidth="1"/>
-    <col min="12" max="12" width="42.1640625" customWidth="1"/>
+    <col min="9" max="9" width="9.125" customWidth="1"/>
+    <col min="12" max="12" width="42.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3900,13 +3909,13 @@
       <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="9" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="3" t="s">
@@ -3925,7 +3934,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>399</v>
       </c>
@@ -3938,13 +3947,13 @@
       <c r="D2" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="11" t="s">
+      <c r="E2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H2">
@@ -3952,7 +3961,7 @@
       </c>
       <c r="L2" s="1"/>
     </row>
-    <row r="3" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>399</v>
       </c>
@@ -3965,13 +3974,13 @@
       <c r="D3" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="E3" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="11" t="s">
+      <c r="E3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H3">
@@ -3979,7 +3988,7 @@
       </c>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>399</v>
       </c>
@@ -3992,13 +4001,13 @@
       <c r="D4" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="11" t="s">
+      <c r="E4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H4">
@@ -4006,7 +4015,7 @@
       </c>
       <c r="L4" s="1"/>
     </row>
-    <row r="5" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>399</v>
       </c>
@@ -4019,13 +4028,13 @@
       <c r="D5" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="11" t="s">
+      <c r="E5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H5">
@@ -4033,7 +4042,7 @@
       </c>
       <c r="L5" s="1"/>
     </row>
-    <row r="6" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>399</v>
       </c>
@@ -4046,13 +4055,13 @@
       <c r="D6" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="11" t="s">
+      <c r="E6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H6">
@@ -4060,7 +4069,7 @@
       </c>
       <c r="L6" s="1"/>
     </row>
-    <row r="7" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>399</v>
       </c>
@@ -4073,10 +4082,10 @@
       <c r="D7" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="F7" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="11" t="s">
+      <c r="F7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H7">
@@ -4084,7 +4093,7 @@
       </c>
       <c r="L7" s="1"/>
     </row>
-    <row r="8" spans="1:12" ht="85" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>399</v>
       </c>
@@ -4097,10 +4106,10 @@
       <c r="D8" s="1" t="s">
         <v>610</v>
       </c>
-      <c r="F8" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="11" t="s">
+      <c r="F8" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H8">
@@ -4108,7 +4117,7 @@
       </c>
       <c r="L8" s="1"/>
     </row>
-    <row r="9" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>399</v>
       </c>
@@ -4121,10 +4130,10 @@
       <c r="D9" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="F9" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" s="11" t="s">
+      <c r="F9" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H9">
@@ -4132,106 +4141,106 @@
       </c>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L10" s="1"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L11" s="1"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L12" s="1"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L13" s="1"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L14" s="1"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L15" s="1"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L16" s="1"/>
     </row>
-    <row r="17" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L17" s="1"/>
     </row>
-    <row r="18" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L18" s="1"/>
     </row>
-    <row r="19" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L19" s="1"/>
     </row>
-    <row r="20" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L20" s="1"/>
     </row>
-    <row r="21" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L21" s="1"/>
     </row>
-    <row r="22" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L22" s="1"/>
     </row>
-    <row r="23" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L23" s="1"/>
     </row>
-    <row r="24" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L24" s="1"/>
     </row>
-    <row r="25" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L25" s="1"/>
     </row>
-    <row r="26" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L26" s="1"/>
     </row>
-    <row r="27" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L27" s="1"/>
     </row>
-    <row r="28" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L28" s="1"/>
     </row>
-    <row r="29" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L29" s="1"/>
     </row>
-    <row r="30" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L30" s="1"/>
     </row>
-    <row r="31" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L31" s="1"/>
     </row>
-    <row r="32" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L32" s="1"/>
     </row>
-    <row r="33" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L33" s="1"/>
     </row>
-    <row r="34" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L34" s="1"/>
     </row>
-    <row r="35" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="35" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L35" s="1"/>
     </row>
-    <row r="36" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="36" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L36" s="1"/>
     </row>
-    <row r="37" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L37" s="1"/>
     </row>
-    <row r="38" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L38" s="1"/>
     </row>
-    <row r="39" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L39" s="1"/>
     </row>
-    <row r="40" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="40" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L40" s="1"/>
     </row>
-    <row r="41" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="41" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L41" s="1"/>
     </row>
-    <row r="42" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L42" s="1"/>
     </row>
-    <row r="43" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="43" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L43" s="1"/>
     </row>
   </sheetData>
@@ -4265,21 +4274,21 @@
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="80.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.1640625" style="9" customWidth="1"/>
-    <col min="7" max="7" width="8.1640625" style="11" customWidth="1"/>
+    <col min="1" max="1" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="80.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.375" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.125" style="8" customWidth="1"/>
+    <col min="7" max="7" width="8.125" style="10" customWidth="1"/>
     <col min="8" max="8" width="7" customWidth="1"/>
     <col min="9" max="9" width="10" customWidth="1"/>
-    <col min="12" max="12" width="42.1640625" customWidth="1"/>
+    <col min="12" max="12" width="42.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -4292,13 +4301,13 @@
       <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="9" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="3" t="s">
@@ -4317,7 +4326,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>415</v>
       </c>
@@ -4330,13 +4339,13 @@
       <c r="D2" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="11" t="s">
+      <c r="E2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H2">
@@ -4344,7 +4353,7 @@
       </c>
       <c r="L2" s="1"/>
     </row>
-    <row r="3" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>415</v>
       </c>
@@ -4357,10 +4366,10 @@
       <c r="D3" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="F3" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="11" t="s">
+      <c r="F3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H3">
@@ -4368,7 +4377,7 @@
       </c>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>415</v>
       </c>
@@ -4381,10 +4390,10 @@
       <c r="D4" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="F4" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="11" t="s">
+      <c r="F4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H4">
@@ -4392,7 +4401,7 @@
       </c>
       <c r="L4" s="1"/>
     </row>
-    <row r="5" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>415</v>
       </c>
@@ -4405,10 +4414,10 @@
       <c r="D5" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="F5" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="11" t="s">
+      <c r="F5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H5">
@@ -4416,7 +4425,7 @@
       </c>
       <c r="L5" s="1"/>
     </row>
-    <row r="6" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>415</v>
       </c>
@@ -4429,13 +4438,13 @@
       <c r="D6" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="11" t="s">
+      <c r="E6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H6">
@@ -4443,7 +4452,7 @@
       </c>
       <c r="L6" s="1"/>
     </row>
-    <row r="7" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>415</v>
       </c>
@@ -4456,13 +4465,13 @@
       <c r="D7" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="11" t="s">
+      <c r="E7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H7">
@@ -4470,7 +4479,7 @@
       </c>
       <c r="L7" s="1"/>
     </row>
-    <row r="8" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>415</v>
       </c>
@@ -4483,13 +4492,13 @@
       <c r="D8" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="11" t="s">
+      <c r="E8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H8">
@@ -4497,7 +4506,7 @@
       </c>
       <c r="L8" s="1"/>
     </row>
-    <row r="9" spans="1:12" ht="68" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" ht="63" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>415</v>
       </c>
@@ -4510,13 +4519,13 @@
       <c r="D9" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" s="11" t="s">
+      <c r="E9" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H9">
@@ -4524,7 +4533,7 @@
       </c>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>415</v>
       </c>
@@ -4537,13 +4546,13 @@
       <c r="D10" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="11" t="s">
+      <c r="E10" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H10">
@@ -4551,7 +4560,7 @@
       </c>
       <c r="L10" s="1"/>
     </row>
-    <row r="11" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>415</v>
       </c>
@@ -4564,10 +4573,10 @@
       <c r="D11" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="F11" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" s="11" t="s">
+      <c r="F11" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H11">
@@ -4575,7 +4584,7 @@
       </c>
       <c r="L11" s="1"/>
     </row>
-    <row r="12" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>415</v>
       </c>
@@ -4588,13 +4597,13 @@
       <c r="D12" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" s="11" t="s">
+      <c r="E12" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H12">
@@ -4602,7 +4611,7 @@
       </c>
       <c r="L12" s="1"/>
     </row>
-    <row r="13" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>415</v>
       </c>
@@ -4615,13 +4624,13 @@
       <c r="D13" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" s="11" t="s">
+      <c r="E13" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H13">
@@ -4629,7 +4638,7 @@
       </c>
       <c r="L13" s="1"/>
     </row>
-    <row r="14" spans="1:12" ht="68" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" ht="63" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>415</v>
       </c>
@@ -4642,13 +4651,13 @@
       <c r="D14" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" s="11" t="s">
+      <c r="E14" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H14">
@@ -4656,7 +4665,7 @@
       </c>
       <c r="L14" s="1"/>
     </row>
-    <row r="15" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>415</v>
       </c>
@@ -4669,13 +4678,13 @@
       <c r="D15" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15" s="11" t="s">
+      <c r="E15" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H15">
@@ -4683,7 +4692,7 @@
       </c>
       <c r="L15" s="1"/>
     </row>
-    <row r="16" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>415</v>
       </c>
@@ -4696,13 +4705,13 @@
       <c r="D16" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" s="11" t="s">
+      <c r="E16" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H16">
@@ -4710,85 +4719,85 @@
       </c>
       <c r="L16" s="1"/>
     </row>
-    <row r="17" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L17" s="1"/>
     </row>
-    <row r="18" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L18" s="1"/>
     </row>
-    <row r="19" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L19" s="1"/>
     </row>
-    <row r="20" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L20" s="1"/>
     </row>
-    <row r="21" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L21" s="1"/>
     </row>
-    <row r="22" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L22" s="1"/>
     </row>
-    <row r="23" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L23" s="1"/>
     </row>
-    <row r="24" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L24" s="1"/>
     </row>
-    <row r="25" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L25" s="1"/>
     </row>
-    <row r="26" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L26" s="1"/>
     </row>
-    <row r="27" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L27" s="1"/>
     </row>
-    <row r="28" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L28" s="1"/>
     </row>
-    <row r="29" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L29" s="1"/>
     </row>
-    <row r="30" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L30" s="1"/>
     </row>
-    <row r="31" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L31" s="1"/>
     </row>
-    <row r="32" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L32" s="1"/>
     </row>
-    <row r="33" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L33" s="1"/>
     </row>
-    <row r="34" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L34" s="1"/>
     </row>
-    <row r="35" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="35" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L35" s="1"/>
     </row>
-    <row r="36" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="36" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L36" s="1"/>
     </row>
-    <row r="37" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L37" s="1"/>
     </row>
-    <row r="38" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L38" s="1"/>
     </row>
-    <row r="39" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L39" s="1"/>
     </row>
-    <row r="40" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="40" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L40" s="1"/>
     </row>
-    <row r="41" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="41" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L41" s="1"/>
     </row>
-    <row r="42" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L42" s="1"/>
     </row>
-    <row r="43" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="43" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L43" s="1"/>
     </row>
   </sheetData>
@@ -4822,21 +4831,21 @@
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="80.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.1640625" style="9" customWidth="1"/>
-    <col min="7" max="7" width="8.1640625" style="11" customWidth="1"/>
+    <col min="1" max="1" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="80.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.375" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.125" style="8" customWidth="1"/>
+    <col min="7" max="7" width="8.125" style="10" customWidth="1"/>
     <col min="8" max="8" width="7" customWidth="1"/>
-    <col min="9" max="9" width="8.33203125" customWidth="1"/>
-    <col min="12" max="12" width="42.1640625" customWidth="1"/>
+    <col min="9" max="9" width="8.375" customWidth="1"/>
+    <col min="12" max="12" width="42.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -4849,13 +4858,13 @@
       <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="9" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="3" t="s">
@@ -4874,7 +4883,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>447</v>
       </c>
@@ -4887,13 +4896,13 @@
       <c r="D2" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="11" t="s">
+      <c r="E2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H2">
@@ -4901,7 +4910,7 @@
       </c>
       <c r="L2" s="1"/>
     </row>
-    <row r="3" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>447</v>
       </c>
@@ -4914,13 +4923,13 @@
       <c r="D3" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="E3" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="11" t="s">
+      <c r="E3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H3">
@@ -4928,7 +4937,7 @@
       </c>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>447</v>
       </c>
@@ -4941,13 +4950,13 @@
       <c r="D4" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="11" t="s">
+      <c r="E4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H4">
@@ -4955,7 +4964,7 @@
       </c>
       <c r="L4" s="1"/>
     </row>
-    <row r="5" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>447</v>
       </c>
@@ -4968,10 +4977,10 @@
       <c r="D5" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="F5" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="11" t="s">
+      <c r="F5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H5">
@@ -4979,7 +4988,7 @@
       </c>
       <c r="L5" s="1"/>
     </row>
-    <row r="6" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>447</v>
       </c>
@@ -4992,10 +5001,10 @@
       <c r="D6" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="F6" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="11" t="s">
+      <c r="F6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H6">
@@ -5003,7 +5012,7 @@
       </c>
       <c r="L6" s="1"/>
     </row>
-    <row r="7" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>447</v>
       </c>
@@ -5016,13 +5025,13 @@
       <c r="D7" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="11" t="s">
+      <c r="E7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H7">
@@ -5030,7 +5039,7 @@
       </c>
       <c r="L7" s="1"/>
     </row>
-    <row r="8" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>447</v>
       </c>
@@ -5043,13 +5052,13 @@
       <c r="D8" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="11" t="s">
+      <c r="E8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H8">
@@ -5057,7 +5066,7 @@
       </c>
       <c r="L8" s="1"/>
     </row>
-    <row r="9" spans="1:12" ht="85" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>447</v>
       </c>
@@ -5070,13 +5079,13 @@
       <c r="D9" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" s="11" t="s">
+      <c r="E9" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H9">
@@ -5084,7 +5093,7 @@
       </c>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>447</v>
       </c>
@@ -5097,10 +5106,10 @@
       <c r="D10" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="F10" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="11" t="s">
+      <c r="F10" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H10">
@@ -5108,7 +5117,7 @@
       </c>
       <c r="L10" s="1"/>
     </row>
-    <row r="11" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>447</v>
       </c>
@@ -5121,10 +5130,10 @@
       <c r="D11" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="F11" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" s="11" t="s">
+      <c r="F11" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H11">
@@ -5132,7 +5141,7 @@
       </c>
       <c r="L11" s="1"/>
     </row>
-    <row r="12" spans="1:12" ht="85" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>447</v>
       </c>
@@ -5145,10 +5154,10 @@
       <c r="D12" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="F12" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" s="11" t="s">
+      <c r="F12" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H12">
@@ -5156,7 +5165,7 @@
       </c>
       <c r="L12" s="1"/>
     </row>
-    <row r="13" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>447</v>
       </c>
@@ -5169,13 +5178,13 @@
       <c r="D13" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" s="11" t="s">
+      <c r="E13" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H13">
@@ -5183,7 +5192,7 @@
       </c>
       <c r="L13" s="1"/>
     </row>
-    <row r="14" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>447</v>
       </c>
@@ -5196,10 +5205,10 @@
       <c r="D14" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="F14" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" s="11" t="s">
+      <c r="F14" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H14">
@@ -5207,7 +5216,7 @@
       </c>
       <c r="L14" s="1"/>
     </row>
-    <row r="15" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>447</v>
       </c>
@@ -5220,10 +5229,10 @@
       <c r="D15" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="F15" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15" s="11" t="s">
+      <c r="F15" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H15">
@@ -5231,7 +5240,7 @@
       </c>
       <c r="L15" s="1"/>
     </row>
-    <row r="16" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>447</v>
       </c>
@@ -5244,10 +5253,10 @@
       <c r="D16" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="F16" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" s="11" t="s">
+      <c r="F16" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H16">
@@ -5255,85 +5264,85 @@
       </c>
       <c r="L16" s="1"/>
     </row>
-    <row r="17" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L17" s="1"/>
     </row>
-    <row r="18" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L18" s="1"/>
     </row>
-    <row r="19" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L19" s="1"/>
     </row>
-    <row r="20" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L20" s="1"/>
     </row>
-    <row r="21" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L21" s="1"/>
     </row>
-    <row r="22" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L22" s="1"/>
     </row>
-    <row r="23" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L23" s="1"/>
     </row>
-    <row r="24" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L24" s="1"/>
     </row>
-    <row r="25" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L25" s="1"/>
     </row>
-    <row r="26" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L26" s="1"/>
     </row>
-    <row r="27" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L27" s="1"/>
     </row>
-    <row r="28" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L28" s="1"/>
     </row>
-    <row r="29" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L29" s="1"/>
     </row>
-    <row r="30" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L30" s="1"/>
     </row>
-    <row r="31" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L31" s="1"/>
     </row>
-    <row r="32" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L32" s="1"/>
     </row>
-    <row r="33" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L33" s="1"/>
     </row>
-    <row r="34" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L34" s="1"/>
     </row>
-    <row r="35" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="35" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L35" s="1"/>
     </row>
-    <row r="36" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="36" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L36" s="1"/>
     </row>
-    <row r="37" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L37" s="1"/>
     </row>
-    <row r="38" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L38" s="1"/>
     </row>
-    <row r="39" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L39" s="1"/>
     </row>
-    <row r="40" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="40" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L40" s="1"/>
     </row>
-    <row r="41" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="41" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L41" s="1"/>
     </row>
-    <row r="42" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L42" s="1"/>
     </row>
-    <row r="43" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="43" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L43" s="1"/>
     </row>
   </sheetData>
@@ -5363,25 +5372,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1503421-8DF7-A041-BC8F-A5F92973091B}">
   <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="80.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.1640625" style="9" customWidth="1"/>
-    <col min="7" max="7" width="8.1640625" style="11" customWidth="1"/>
+    <col min="1" max="1" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="80.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.375" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.125" style="8" customWidth="1"/>
+    <col min="7" max="7" width="8.125" style="10" customWidth="1"/>
     <col min="8" max="8" width="7" customWidth="1"/>
-    <col min="9" max="9" width="8.33203125" customWidth="1"/>
-    <col min="12" max="12" width="42.1640625" customWidth="1"/>
+    <col min="9" max="9" width="8.375" customWidth="1"/>
+    <col min="12" max="12" width="42.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -5394,13 +5403,13 @@
       <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="9" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="3" t="s">
@@ -5419,7 +5428,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>479</v>
       </c>
@@ -5432,15 +5441,15 @@
       <c r="D2" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="F2" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="11" t="s">
+      <c r="F2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="10" t="s">
         <v>12</v>
       </c>
       <c r="L2" s="1"/>
     </row>
-    <row r="3" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>479</v>
       </c>
@@ -5453,10 +5462,10 @@
       <c r="D3" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="F3" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="11" t="s">
+      <c r="F3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H3">
@@ -5464,7 +5473,7 @@
       </c>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>479</v>
       </c>
@@ -5477,10 +5486,10 @@
       <c r="D4" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="F4" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="11" t="s">
+      <c r="F4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H4">
@@ -5488,7 +5497,7 @@
       </c>
       <c r="L4" s="1"/>
     </row>
-    <row r="5" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>479</v>
       </c>
@@ -5501,15 +5510,15 @@
       <c r="D5" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="F5" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="11" t="s">
+      <c r="F5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="10" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="1"/>
     </row>
-    <row r="6" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>479</v>
       </c>
@@ -5522,12 +5531,12 @@
       <c r="D6" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="G6" s="10" t="s">
         <v>12</v>
       </c>
       <c r="L6" s="1"/>
     </row>
-    <row r="7" spans="1:12" ht="68" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>479</v>
       </c>
@@ -5540,13 +5549,13 @@
       <c r="D7" s="1" t="s">
         <v>611</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="11" t="s">
+      <c r="E7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H7">
@@ -5554,7 +5563,7 @@
       </c>
       <c r="L7" s="1"/>
     </row>
-    <row r="8" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>479</v>
       </c>
@@ -5567,13 +5576,13 @@
       <c r="D8" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="11" t="s">
+      <c r="E8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H8">
@@ -5581,7 +5590,7 @@
       </c>
       <c r="L8" s="1"/>
     </row>
-    <row r="9" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>479</v>
       </c>
@@ -5594,13 +5603,13 @@
       <c r="D9" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" s="11" t="s">
+      <c r="E9" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H9">
@@ -5608,7 +5617,7 @@
       </c>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="1:12" ht="68" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>479</v>
       </c>
@@ -5621,10 +5630,10 @@
       <c r="D10" s="1" t="s">
         <v>612</v>
       </c>
-      <c r="F10" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="11" t="s">
+      <c r="F10" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H10">
@@ -5632,7 +5641,7 @@
       </c>
       <c r="L10" s="1"/>
     </row>
-    <row r="11" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>479</v>
       </c>
@@ -5645,15 +5654,15 @@
       <c r="D11" s="1" t="s">
         <v>613</v>
       </c>
-      <c r="F11" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" s="11" t="s">
+      <c r="F11" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="10" t="s">
         <v>12</v>
       </c>
       <c r="L11" s="1"/>
     </row>
-    <row r="12" spans="1:12" ht="68" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>479</v>
       </c>
@@ -5666,10 +5675,10 @@
       <c r="D12" s="1" t="s">
         <v>614</v>
       </c>
-      <c r="F12" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" s="11" t="s">
+      <c r="F12" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H12">
@@ -5677,7 +5686,7 @@
       </c>
       <c r="L12" s="1"/>
     </row>
-    <row r="13" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>479</v>
       </c>
@@ -5690,13 +5699,13 @@
       <c r="D13" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" s="11" t="s">
+      <c r="E13" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H13">
@@ -5704,7 +5713,7 @@
       </c>
       <c r="L13" s="1"/>
     </row>
-    <row r="14" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>479</v>
       </c>
@@ -5717,13 +5726,13 @@
       <c r="D14" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" s="11" t="s">
+      <c r="E14" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H14">
@@ -5731,7 +5740,7 @@
       </c>
       <c r="L14" s="1"/>
     </row>
-    <row r="15" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>479</v>
       </c>
@@ -5744,13 +5753,13 @@
       <c r="D15" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15" s="11" t="s">
+      <c r="E15" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H15">
@@ -5758,7 +5767,7 @@
       </c>
       <c r="L15" s="1"/>
     </row>
-    <row r="16" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>479</v>
       </c>
@@ -5771,13 +5780,13 @@
       <c r="D16" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" s="11" t="s">
+      <c r="E16" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H16">
@@ -5785,7 +5794,7 @@
       </c>
       <c r="L16" s="1"/>
     </row>
-    <row r="17" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>479</v>
       </c>
@@ -5798,13 +5807,13 @@
       <c r="D17" s="1" t="s">
         <v>572</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" s="11" t="s">
+      <c r="E17" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H17">
@@ -5812,7 +5821,7 @@
       </c>
       <c r="L17" s="1"/>
     </row>
-    <row r="18" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>479</v>
       </c>
@@ -5825,13 +5834,13 @@
       <c r="D18" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G18" s="11" t="s">
+      <c r="E18" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H18">
@@ -5839,7 +5848,7 @@
       </c>
       <c r="L18" s="1"/>
     </row>
-    <row r="19" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>479</v>
       </c>
@@ -5852,13 +5861,13 @@
       <c r="D19" s="1" t="s">
         <v>508</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" s="11" t="s">
+      <c r="E19" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H19">
@@ -5866,7 +5875,7 @@
       </c>
       <c r="L19" s="1"/>
     </row>
-    <row r="20" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>479</v>
       </c>
@@ -5879,13 +5888,13 @@
       <c r="D20" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" s="11" t="s">
+      <c r="E20" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H20">
@@ -5893,7 +5902,7 @@
       </c>
       <c r="L20" s="1"/>
     </row>
-    <row r="21" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>479</v>
       </c>
@@ -5906,13 +5915,13 @@
       <c r="D21" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="E21" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F21" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G21" s="11" t="s">
+      <c r="E21" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H21">
@@ -5920,7 +5929,7 @@
       </c>
       <c r="L21" s="1"/>
     </row>
-    <row r="22" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>479</v>
       </c>
@@ -5933,13 +5942,13 @@
       <c r="D22" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G22" s="11" t="s">
+      <c r="E22" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H22">
@@ -5947,7 +5956,7 @@
       </c>
       <c r="L22" s="1"/>
     </row>
-    <row r="23" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>479</v>
       </c>
@@ -5960,13 +5969,13 @@
       <c r="D23" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F23" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G23" s="11" t="s">
+      <c r="E23" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H23">
@@ -5974,7 +5983,7 @@
       </c>
       <c r="L23" s="1"/>
     </row>
-    <row r="24" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>479</v>
       </c>
@@ -5987,13 +5996,13 @@
       <c r="D24" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F24" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G24" s="11" t="s">
+      <c r="E24" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H24">
@@ -6001,7 +6010,7 @@
       </c>
       <c r="L24" s="1"/>
     </row>
-    <row r="25" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>479</v>
       </c>
@@ -6014,13 +6023,13 @@
       <c r="D25" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="E25" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F25" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G25" s="11" t="s">
+      <c r="E25" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H25">
@@ -6028,7 +6037,7 @@
       </c>
       <c r="L25" s="1"/>
     </row>
-    <row r="26" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>479</v>
       </c>
@@ -6041,10 +6050,10 @@
       <c r="D26" s="1" t="s">
         <v>521</v>
       </c>
-      <c r="F26" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G26" s="11" t="s">
+      <c r="F26" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H26">
@@ -6052,55 +6061,55 @@
       </c>
       <c r="L26" s="1"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L27" s="1"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L28" s="1"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L29" s="1"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L30" s="1"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L31" s="1"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L32" s="1"/>
     </row>
-    <row r="33" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L33" s="1"/>
     </row>
-    <row r="34" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L34" s="1"/>
     </row>
-    <row r="35" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="35" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L35" s="1"/>
     </row>
-    <row r="36" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="36" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L36" s="1"/>
     </row>
-    <row r="37" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L37" s="1"/>
     </row>
-    <row r="38" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L38" s="1"/>
     </row>
-    <row r="39" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L39" s="1"/>
     </row>
-    <row r="40" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="40" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L40" s="1"/>
     </row>
-    <row r="41" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="41" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L41" s="1"/>
     </row>
-    <row r="42" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L42" s="1"/>
     </row>
-    <row r="43" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="43" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L43" s="1"/>
     </row>
   </sheetData>
@@ -6134,29 +6143,29 @@
       <selection activeCell="A49" sqref="A49:B51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" s="13" t="s">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="12" t="s">
         <v>525</v>
       </c>
-      <c r="B49" s="13" t="s">
+      <c r="B49" s="12" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" s="12" t="s">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="11" t="s">
         <v>526</v>
       </c>
-      <c r="B50" s="12" t="s">
+      <c r="B50" s="11" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" s="15" t="s">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="14" t="s">
         <v>527</v>
       </c>
-      <c r="B51" s="14" t="s">
+      <c r="B51" s="13" t="s">
         <v>530</v>
       </c>
     </row>
@@ -6169,25 +6178,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AE4CA71-BC5F-0447-930A-93FD40842726}">
   <dimension ref="A1:AD43"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="80.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.1640625" style="9" customWidth="1"/>
-    <col min="7" max="7" width="8.1640625" style="11" customWidth="1"/>
+    <col min="1" max="1" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="80.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.375" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.125" style="8" customWidth="1"/>
+    <col min="7" max="7" width="8.125" style="10" customWidth="1"/>
     <col min="8" max="8" width="7" customWidth="1"/>
-    <col min="9" max="9" width="11.1640625" customWidth="1"/>
-    <col min="12" max="12" width="42.1640625" customWidth="1"/>
+    <col min="9" max="9" width="11.125" customWidth="1"/>
+    <col min="12" max="12" width="42.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -6200,13 +6209,13 @@
       <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="9" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="3" t="s">
@@ -6225,7 +6234,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="2" spans="1:30" ht="34" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -6238,17 +6247,17 @@
       <c r="D2" s="1" t="s">
         <v>531</v>
       </c>
-      <c r="F2" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="11" t="s">
+      <c r="F2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="10" t="s">
         <v>12</v>
       </c>
       <c r="L2" s="1"/>
-      <c r="AC2" s="13"/>
-      <c r="AD2" s="13"/>
-    </row>
-    <row r="3" spans="1:30" ht="51" x14ac:dyDescent="0.2">
+      <c r="AC2" s="12"/>
+      <c r="AD2" s="12"/>
+    </row>
+    <row r="3" spans="1:30" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -6261,20 +6270,20 @@
       <c r="D3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="11" t="s">
+      <c r="F3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H3">
         <v>1053</v>
       </c>
       <c r="L3" s="1"/>
-      <c r="AC3" s="12"/>
-      <c r="AD3" s="12"/>
-    </row>
-    <row r="4" spans="1:30" ht="51" x14ac:dyDescent="0.2">
+      <c r="AC3" s="11"/>
+      <c r="AD3" s="11"/>
+    </row>
+    <row r="4" spans="1:30" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -6287,19 +6296,19 @@
       <c r="D4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="11" t="s">
+      <c r="F4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H4">
         <v>1110</v>
       </c>
       <c r="L4" s="1"/>
-      <c r="AD4" s="14"/>
-    </row>
-    <row r="5" spans="1:30" ht="34" x14ac:dyDescent="0.2">
+      <c r="AD4" s="13"/>
+    </row>
+    <row r="5" spans="1:30" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -6312,10 +6321,10 @@
       <c r="D5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="11" t="s">
+      <c r="F5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H5">
@@ -6323,7 +6332,7 @@
       </c>
       <c r="L5" s="1"/>
     </row>
-    <row r="6" spans="1:30" ht="34" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -6336,10 +6345,10 @@
       <c r="D6" s="1" t="s">
         <v>532</v>
       </c>
-      <c r="F6" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="11" t="s">
+      <c r="F6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H6">
@@ -6347,7 +6356,7 @@
       </c>
       <c r="L6" s="1"/>
     </row>
-    <row r="7" spans="1:30" ht="34" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -6360,10 +6369,10 @@
       <c r="D7" s="1" t="s">
         <v>533</v>
       </c>
-      <c r="F7" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="11" t="s">
+      <c r="F7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H7">
@@ -6371,7 +6380,7 @@
       </c>
       <c r="L7" s="1"/>
     </row>
-    <row r="8" spans="1:30" ht="34" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -6384,10 +6393,10 @@
       <c r="D8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="11" t="s">
+      <c r="F8" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H8">
@@ -6395,7 +6404,7 @@
       </c>
       <c r="L8" s="1"/>
     </row>
-    <row r="9" spans="1:30" ht="51" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -6408,10 +6417,10 @@
       <c r="D9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" s="11" t="s">
+      <c r="F9" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H9">
@@ -6419,7 +6428,7 @@
       </c>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="1:30" ht="34" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -6432,10 +6441,10 @@
       <c r="D10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="11" t="s">
+      <c r="F10" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H10">
@@ -6443,7 +6452,7 @@
       </c>
       <c r="L10" s="1"/>
     </row>
-    <row r="11" spans="1:30" ht="34" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -6456,10 +6465,10 @@
       <c r="D11" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" s="11" t="s">
+      <c r="F11" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H11">
@@ -6467,7 +6476,7 @@
       </c>
       <c r="L11" s="1"/>
     </row>
-    <row r="12" spans="1:30" ht="51" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:30" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -6480,7 +6489,7 @@
       <c r="D12" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G12" s="11" t="s">
+      <c r="G12" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H12">
@@ -6488,7 +6497,7 @@
       </c>
       <c r="L12" s="1"/>
     </row>
-    <row r="13" spans="1:30" ht="17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -6501,10 +6510,10 @@
       <c r="D13" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F13" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" s="11" t="s">
+      <c r="F13" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H13">
@@ -6512,7 +6521,7 @@
       </c>
       <c r="L13" s="1"/>
     </row>
-    <row r="14" spans="1:30" ht="68" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:30" ht="63" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -6525,10 +6534,10 @@
       <c r="D14" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F14" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" s="11" t="s">
+      <c r="F14" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H14">
@@ -6536,7 +6545,7 @@
       </c>
       <c r="L14" s="1"/>
     </row>
-    <row r="15" spans="1:30" ht="51" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -6549,10 +6558,10 @@
       <c r="D15" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F15" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15" s="11" t="s">
+      <c r="F15" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H15">
@@ -6560,7 +6569,7 @@
       </c>
       <c r="L15" s="1"/>
     </row>
-    <row r="16" spans="1:30" ht="34" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -6573,10 +6582,10 @@
       <c r="D16" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F16" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" s="11" t="s">
+      <c r="F16" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H16">
@@ -6584,7 +6593,7 @@
       </c>
       <c r="L16" s="1"/>
     </row>
-    <row r="17" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>9</v>
       </c>
@@ -6597,10 +6606,10 @@
       <c r="D17" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F17" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" s="11" t="s">
+      <c r="F17" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H17">
@@ -6608,7 +6617,7 @@
       </c>
       <c r="L17" s="1"/>
     </row>
-    <row r="18" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>9</v>
       </c>
@@ -6621,15 +6630,15 @@
       <c r="D18" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F18" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G18" s="11" t="s">
+      <c r="F18" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="10" t="s">
         <v>12</v>
       </c>
       <c r="L18" s="1"/>
     </row>
-    <row r="19" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>9</v>
       </c>
@@ -6642,10 +6651,10 @@
       <c r="D19" s="1" t="s">
         <v>534</v>
       </c>
-      <c r="F19" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" s="11" t="s">
+      <c r="F19" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H19">
@@ -6653,7 +6662,7 @@
       </c>
       <c r="L19" s="1"/>
     </row>
-    <row r="20" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>9</v>
       </c>
@@ -6666,10 +6675,10 @@
       <c r="D20" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F20" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" s="11" t="s">
+      <c r="F20" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H20">
@@ -6677,7 +6686,7 @@
       </c>
       <c r="L20" s="1"/>
     </row>
-    <row r="21" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>9</v>
       </c>
@@ -6690,10 +6699,10 @@
       <c r="D21" s="1" t="s">
         <v>535</v>
       </c>
-      <c r="F21" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G21" s="11" t="s">
+      <c r="F21" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H21">
@@ -6701,7 +6710,7 @@
       </c>
       <c r="L21" s="1"/>
     </row>
-    <row r="22" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>9</v>
       </c>
@@ -6714,10 +6723,10 @@
       <c r="D22" s="1" t="s">
         <v>536</v>
       </c>
-      <c r="F22" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G22" s="11" t="s">
+      <c r="F22" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H22">
@@ -6725,7 +6734,7 @@
       </c>
       <c r="L22" s="1"/>
     </row>
-    <row r="23" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>9</v>
       </c>
@@ -6738,10 +6747,10 @@
       <c r="D23" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F23" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G23" s="11" t="s">
+      <c r="F23" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H23">
@@ -6749,7 +6758,7 @@
       </c>
       <c r="L23" s="1"/>
     </row>
-    <row r="24" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>9</v>
       </c>
@@ -6762,10 +6771,10 @@
       <c r="D24" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F24" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G24" s="11" t="s">
+      <c r="F24" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H24">
@@ -6773,7 +6782,7 @@
       </c>
       <c r="L24" s="1"/>
     </row>
-    <row r="25" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>9</v>
       </c>
@@ -6786,10 +6795,10 @@
       <c r="D25" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F25" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G25" s="11" t="s">
+      <c r="F25" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H25">
@@ -6797,7 +6806,7 @@
       </c>
       <c r="L25" s="1"/>
     </row>
-    <row r="26" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>9</v>
       </c>
@@ -6810,10 +6819,10 @@
       <c r="D26" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F26" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G26" s="11" t="s">
+      <c r="F26" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H26">
@@ -6821,7 +6830,7 @@
       </c>
       <c r="L26" s="1"/>
     </row>
-    <row r="27" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>9</v>
       </c>
@@ -6834,10 +6843,10 @@
       <c r="D27" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F27" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G27" s="11" t="s">
+      <c r="F27" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G27" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H27">
@@ -6845,7 +6854,7 @@
       </c>
       <c r="L27" s="1"/>
     </row>
-    <row r="28" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>9</v>
       </c>
@@ -6858,10 +6867,10 @@
       <c r="D28" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="F28" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G28" s="11" t="s">
+      <c r="F28" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H28">
@@ -6869,7 +6878,7 @@
       </c>
       <c r="L28" s="1"/>
     </row>
-    <row r="29" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>9</v>
       </c>
@@ -6882,10 +6891,10 @@
       <c r="D29" s="1" t="s">
         <v>538</v>
       </c>
-      <c r="F29" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G29" s="11" t="s">
+      <c r="F29" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H29">
@@ -6893,7 +6902,7 @@
       </c>
       <c r="L29" s="1"/>
     </row>
-    <row r="30" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>9</v>
       </c>
@@ -6906,10 +6915,10 @@
       <c r="D30" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F30" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G30" s="11" t="s">
+      <c r="F30" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G30" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H30">
@@ -6917,7 +6926,7 @@
       </c>
       <c r="L30" s="1"/>
     </row>
-    <row r="31" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>9</v>
       </c>
@@ -6930,10 +6939,10 @@
       <c r="D31" s="1" t="s">
         <v>539</v>
       </c>
-      <c r="F31" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G31" s="11" t="s">
+      <c r="F31" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G31" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H31">
@@ -6941,7 +6950,7 @@
       </c>
       <c r="L31" s="1"/>
     </row>
-    <row r="32" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>9</v>
       </c>
@@ -6954,10 +6963,10 @@
       <c r="D32" s="1" t="s">
         <v>540</v>
       </c>
-      <c r="F32" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G32" s="11" t="s">
+      <c r="F32" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G32" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H32">
@@ -6965,7 +6974,7 @@
       </c>
       <c r="L32" s="1"/>
     </row>
-    <row r="33" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>9</v>
       </c>
@@ -6978,10 +6987,10 @@
       <c r="D33" s="1" t="s">
         <v>541</v>
       </c>
-      <c r="F33" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G33" s="11" t="s">
+      <c r="F33" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G33" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H33">
@@ -6989,7 +6998,7 @@
       </c>
       <c r="L33" s="1"/>
     </row>
-    <row r="34" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>9</v>
       </c>
@@ -7002,10 +7011,10 @@
       <c r="D34" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F34" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G34" s="11" t="s">
+      <c r="F34" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G34" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H34">
@@ -7013,7 +7022,7 @@
       </c>
       <c r="L34" s="1"/>
     </row>
-    <row r="35" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>9</v>
       </c>
@@ -7026,10 +7035,10 @@
       <c r="D35" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F35" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G35" s="11" t="s">
+      <c r="F35" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G35" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H35">
@@ -7037,7 +7046,7 @@
       </c>
       <c r="L35" s="1"/>
     </row>
-    <row r="36" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>9</v>
       </c>
@@ -7050,10 +7059,10 @@
       <c r="D36" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F36" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G36" s="11" t="s">
+      <c r="F36" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G36" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H36">
@@ -7061,7 +7070,7 @@
       </c>
       <c r="L36" s="1"/>
     </row>
-    <row r="37" spans="1:12" ht="68" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" ht="63" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>9</v>
       </c>
@@ -7074,10 +7083,10 @@
       <c r="D37" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F37" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G37" s="11" t="s">
+      <c r="F37" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G37" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H37">
@@ -7085,7 +7094,7 @@
       </c>
       <c r="L37" s="1"/>
     </row>
-    <row r="38" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>9</v>
       </c>
@@ -7098,10 +7107,10 @@
       <c r="D38" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="F38" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G38" s="11" t="s">
+      <c r="F38" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G38" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H38">
@@ -7109,7 +7118,7 @@
       </c>
       <c r="L38" s="1"/>
     </row>
-    <row r="39" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>9</v>
       </c>
@@ -7122,15 +7131,15 @@
       <c r="D39" s="1" t="s">
         <v>543</v>
       </c>
-      <c r="F39" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G39" s="11" t="s">
+      <c r="F39" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G39" s="10" t="s">
         <v>12</v>
       </c>
       <c r="L39" s="1"/>
     </row>
-    <row r="40" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>9</v>
       </c>
@@ -7143,15 +7152,15 @@
       <c r="D40" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="F40" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G40" s="11" t="s">
+      <c r="F40" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G40" s="10" t="s">
         <v>12</v>
       </c>
       <c r="L40" s="1"/>
     </row>
-    <row r="41" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>9</v>
       </c>
@@ -7164,15 +7173,15 @@
       <c r="D41" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F41" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G41" s="11" t="s">
+      <c r="F41" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G41" s="10" t="s">
         <v>12</v>
       </c>
       <c r="L41" s="1"/>
     </row>
-    <row r="42" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>9</v>
       </c>
@@ -7185,10 +7194,10 @@
       <c r="D42" s="1" t="s">
         <v>544</v>
       </c>
-      <c r="F42" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G42" s="11" t="s">
+      <c r="F42" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G42" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H42">
@@ -7196,7 +7205,7 @@
       </c>
       <c r="L42" s="1"/>
     </row>
-    <row r="43" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>9</v>
       </c>
@@ -7209,10 +7218,10 @@
       <c r="D43" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="F43" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G43" s="11" t="s">
+      <c r="F43" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G43" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H43">
@@ -7247,26 +7256,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C4DC0D1-9BB5-0843-8340-C7345EDA46EC}">
   <dimension ref="A1:L58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I49" sqref="I49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="80.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.1640625" style="9" customWidth="1"/>
-    <col min="7" max="7" width="8.1640625" style="11" customWidth="1"/>
+    <col min="1" max="1" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="80.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.375" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.375" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5" style="10" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7" customWidth="1"/>
-    <col min="9" max="9" width="12" customWidth="1"/>
-    <col min="10" max="10" width="8.83203125" customWidth="1"/>
-    <col min="12" max="12" width="42.1640625" customWidth="1"/>
+    <col min="9" max="9" width="28.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.875" customWidth="1"/>
+    <col min="12" max="12" width="42.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -7279,13 +7288,13 @@
       <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="9" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="3" t="s">
@@ -7304,7 +7313,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>82</v>
       </c>
@@ -7317,13 +7326,13 @@
       <c r="D2" s="1" t="s">
         <v>545</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="11" t="s">
+      <c r="E2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H2">
@@ -7334,7 +7343,7 @@
       </c>
       <c r="L2" s="1"/>
     </row>
-    <row r="3" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>82</v>
       </c>
@@ -7347,13 +7356,13 @@
       <c r="D3" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E3" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="11" t="s">
+      <c r="E3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H3">
@@ -7364,7 +7373,7 @@
       </c>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>82</v>
       </c>
@@ -7377,13 +7386,13 @@
       <c r="D4" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="11" t="s">
+      <c r="E4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H4">
@@ -7394,7 +7403,7 @@
       </c>
       <c r="L4" s="1"/>
     </row>
-    <row r="5" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>82</v>
       </c>
@@ -7407,13 +7416,13 @@
       <c r="D5" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="11" t="s">
+      <c r="E5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H5">
@@ -7424,7 +7433,7 @@
       </c>
       <c r="L5" s="1"/>
     </row>
-    <row r="6" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>82</v>
       </c>
@@ -7437,13 +7446,13 @@
       <c r="D6" s="1" t="s">
         <v>546</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="11" t="s">
+      <c r="E6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H6">
@@ -7454,7 +7463,7 @@
       </c>
       <c r="L6" s="1"/>
     </row>
-    <row r="7" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>82</v>
       </c>
@@ -7467,13 +7476,13 @@
       <c r="D7" s="1" t="s">
         <v>547</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="11" t="s">
+      <c r="E7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H7">
@@ -7484,7 +7493,7 @@
       </c>
       <c r="L7" s="1"/>
     </row>
-    <row r="8" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>82</v>
       </c>
@@ -7497,13 +7506,13 @@
       <c r="D8" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="11" t="s">
+      <c r="E8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H8">
@@ -7514,7 +7523,7 @@
       </c>
       <c r="L8" s="1"/>
     </row>
-    <row r="9" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>82</v>
       </c>
@@ -7527,13 +7536,13 @@
       <c r="D9" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" s="11" t="s">
+      <c r="E9" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H9">
@@ -7544,7 +7553,7 @@
       </c>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>82</v>
       </c>
@@ -7557,13 +7566,13 @@
       <c r="D10" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="11" t="s">
+      <c r="E10" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H10">
@@ -7574,7 +7583,7 @@
       </c>
       <c r="L10" s="1"/>
     </row>
-    <row r="11" spans="1:12" ht="102" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>82</v>
       </c>
@@ -7587,13 +7596,13 @@
       <c r="D11" s="1" t="s">
         <v>548</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" s="11" t="s">
+      <c r="E11" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H11">
@@ -7604,7 +7613,7 @@
       </c>
       <c r="L11" s="1"/>
     </row>
-    <row r="12" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>82</v>
       </c>
@@ -7617,13 +7626,13 @@
       <c r="D12" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" s="11" t="s">
+      <c r="E12" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H12">
@@ -7634,7 +7643,7 @@
       </c>
       <c r="L12" s="1"/>
     </row>
-    <row r="13" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>82</v>
       </c>
@@ -7647,13 +7656,13 @@
       <c r="D13" s="1" t="s">
         <v>549</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" s="11" t="s">
+      <c r="E13" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H13">
@@ -7664,7 +7673,7 @@
       </c>
       <c r="L13" s="1"/>
     </row>
-    <row r="14" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>82</v>
       </c>
@@ -7677,10 +7686,10 @@
       <c r="D14" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="F14" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="G14" s="11" t="s">
+      <c r="G14" s="10" t="s">
         <v>107</v>
       </c>
       <c r="H14">
@@ -7691,7 +7700,7 @@
       </c>
       <c r="L14" s="1"/>
     </row>
-    <row r="15" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>82</v>
       </c>
@@ -7704,10 +7713,10 @@
       <c r="D15" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="F15" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="G15" s="11" t="s">
+      <c r="G15" s="10" t="s">
         <v>107</v>
       </c>
       <c r="H15">
@@ -7718,7 +7727,7 @@
       </c>
       <c r="L15" s="1"/>
     </row>
-    <row r="16" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>82</v>
       </c>
@@ -7731,10 +7740,10 @@
       <c r="D16" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="F16" s="9" t="s">
+      <c r="F16" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="G16" s="11" t="s">
+      <c r="G16" s="10" t="s">
         <v>107</v>
       </c>
       <c r="H16">
@@ -7745,7 +7754,7 @@
       </c>
       <c r="L16" s="1"/>
     </row>
-    <row r="17" spans="1:12" ht="85" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>82</v>
       </c>
@@ -7758,10 +7767,10 @@
       <c r="D17" s="1" t="s">
         <v>615</v>
       </c>
-      <c r="F17" s="9" t="s">
+      <c r="F17" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="G17" s="11" t="s">
+      <c r="G17" s="10" t="s">
         <v>107</v>
       </c>
       <c r="H17">
@@ -7769,7 +7778,7 @@
       </c>
       <c r="L17" s="1"/>
     </row>
-    <row r="18" spans="1:12" ht="102" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>82</v>
       </c>
@@ -7782,13 +7791,13 @@
       <c r="D18" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G18" s="11" t="s">
+      <c r="E18" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H18">
@@ -7799,7 +7808,7 @@
       </c>
       <c r="L18" s="1"/>
     </row>
-    <row r="19" spans="1:12" ht="68" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" ht="63" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>82</v>
       </c>
@@ -7812,13 +7821,13 @@
       <c r="D19" s="1" t="s">
         <v>616</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" s="11" t="s">
+      <c r="E19" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H19">
@@ -7829,7 +7838,7 @@
       </c>
       <c r="L19" s="1"/>
     </row>
-    <row r="20" spans="1:12" ht="85" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>82</v>
       </c>
@@ -7842,13 +7851,13 @@
       <c r="D20" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" s="11" t="s">
+      <c r="E20" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H20">
@@ -7856,7 +7865,7 @@
       </c>
       <c r="L20" s="1"/>
     </row>
-    <row r="21" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>82</v>
       </c>
@@ -7869,7 +7878,7 @@
       <c r="D21" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="G21" s="11" t="s">
+      <c r="G21" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H21">
@@ -7880,7 +7889,7 @@
       </c>
       <c r="L21" s="1"/>
     </row>
-    <row r="22" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>82</v>
       </c>
@@ -7893,7 +7902,7 @@
       <c r="D22" s="1" t="s">
         <v>618</v>
       </c>
-      <c r="G22" s="11" t="s">
+      <c r="G22" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H22">
@@ -7904,7 +7913,7 @@
       </c>
       <c r="L22" s="1"/>
     </row>
-    <row r="23" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>82</v>
       </c>
@@ -7917,7 +7926,7 @@
       <c r="D23" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="G23" s="11" t="s">
+      <c r="G23" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H23">
@@ -7928,7 +7937,7 @@
       </c>
       <c r="L23" s="1"/>
     </row>
-    <row r="24" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>82</v>
       </c>
@@ -7941,7 +7950,7 @@
       <c r="D24" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="G24" s="11" t="s">
+      <c r="G24" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H24">
@@ -7952,7 +7961,7 @@
       </c>
       <c r="L24" s="1"/>
     </row>
-    <row r="25" spans="1:12" ht="68" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" ht="63" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>82</v>
       </c>
@@ -7965,13 +7974,13 @@
       <c r="D25" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="E25" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F25" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G25" s="11" t="s">
+      <c r="E25" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H25">
@@ -7982,7 +7991,7 @@
       </c>
       <c r="L25" s="1"/>
     </row>
-    <row r="26" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>82</v>
       </c>
@@ -7995,10 +8004,10 @@
       <c r="D26" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="F26" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G26" s="11" t="s">
+      <c r="F26" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H26">
@@ -8009,7 +8018,7 @@
       </c>
       <c r="L26" s="1"/>
     </row>
-    <row r="27" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>82</v>
       </c>
@@ -8022,10 +8031,10 @@
       <c r="D27" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="F27" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G27" s="11" t="s">
+      <c r="F27" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G27" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H27">
@@ -8036,7 +8045,7 @@
       </c>
       <c r="L27" s="1"/>
     </row>
-    <row r="28" spans="1:12" ht="68" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" ht="63" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>82</v>
       </c>
@@ -8049,10 +8058,10 @@
       <c r="D28" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="F28" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G28" s="11" t="s">
+      <c r="F28" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H28">
@@ -8063,7 +8072,7 @@
       </c>
       <c r="L28" s="1"/>
     </row>
-    <row r="29" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>82</v>
       </c>
@@ -8076,10 +8085,10 @@
       <c r="D29" s="1" t="s">
         <v>551</v>
       </c>
-      <c r="F29" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G29" s="11" t="s">
+      <c r="F29" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H29">
@@ -8090,7 +8099,7 @@
       </c>
       <c r="L29" s="1"/>
     </row>
-    <row r="30" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>82</v>
       </c>
@@ -8103,10 +8112,10 @@
       <c r="D30" s="1" t="s">
         <v>552</v>
       </c>
-      <c r="F30" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G30" s="11" t="s">
+      <c r="F30" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G30" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H30">
@@ -8117,7 +8126,7 @@
       </c>
       <c r="L30" s="1"/>
     </row>
-    <row r="31" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>82</v>
       </c>
@@ -8130,10 +8139,10 @@
       <c r="D31" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="F31" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G31" s="11" t="s">
+      <c r="F31" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G31" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H31">
@@ -8144,7 +8153,7 @@
       </c>
       <c r="L31" s="1"/>
     </row>
-    <row r="32" spans="1:12" ht="102" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>82</v>
       </c>
@@ -8157,10 +8166,10 @@
       <c r="D32" s="1" t="s">
         <v>619</v>
       </c>
-      <c r="F32" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G32" s="11" t="s">
+      <c r="F32" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G32" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H32">
@@ -8171,7 +8180,7 @@
       </c>
       <c r="L32" s="1"/>
     </row>
-    <row r="33" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>82</v>
       </c>
@@ -8184,13 +8193,13 @@
       <c r="D33" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="E33" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F33" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G33" s="11" t="s">
+      <c r="E33" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G33" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H33">
@@ -8201,7 +8210,7 @@
       </c>
       <c r="L33" s="1"/>
     </row>
-    <row r="34" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>82</v>
       </c>
@@ -8214,13 +8223,13 @@
       <c r="D34" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="E34" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F34" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G34" s="11" t="s">
+      <c r="E34" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G34" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H34">
@@ -8231,7 +8240,7 @@
       </c>
       <c r="L34" s="1"/>
     </row>
-    <row r="35" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>82</v>
       </c>
@@ -8244,13 +8253,13 @@
       <c r="D35" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="E35" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F35" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G35" s="11" t="s">
+      <c r="E35" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G35" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H35">
@@ -8261,7 +8270,7 @@
       </c>
       <c r="L35" s="1"/>
     </row>
-    <row r="36" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>82</v>
       </c>
@@ -8274,13 +8283,13 @@
       <c r="D36" s="1" t="s">
         <v>621</v>
       </c>
-      <c r="E36" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F36" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G36" s="11" t="s">
+      <c r="E36" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G36" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H36">
@@ -8291,7 +8300,7 @@
       </c>
       <c r="L36" s="1"/>
     </row>
-    <row r="37" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>82</v>
       </c>
@@ -8304,13 +8313,13 @@
       <c r="D37" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="E37" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F37" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G37" s="11" t="s">
+      <c r="E37" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G37" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H37">
@@ -8321,7 +8330,7 @@
       </c>
       <c r="L37" s="1"/>
     </row>
-    <row r="38" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>82</v>
       </c>
@@ -8334,13 +8343,13 @@
       <c r="D38" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="E38" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F38" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G38" s="11" t="s">
+      <c r="E38" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G38" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H38">
@@ -8351,7 +8360,7 @@
       </c>
       <c r="L38" s="1"/>
     </row>
-    <row r="39" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>82</v>
       </c>
@@ -8364,10 +8373,10 @@
       <c r="D39" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="F39" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G39" s="11" t="s">
+      <c r="F39" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G39" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H39">
@@ -8378,7 +8387,7 @@
       </c>
       <c r="L39" s="1"/>
     </row>
-    <row r="40" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>82</v>
       </c>
@@ -8391,10 +8400,10 @@
       <c r="D40" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="F40" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G40" s="11" t="s">
+      <c r="F40" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G40" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H40">
@@ -8405,7 +8414,7 @@
       </c>
       <c r="L40" s="1"/>
     </row>
-    <row r="41" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>82</v>
       </c>
@@ -8418,10 +8427,10 @@
       <c r="D41" s="1" t="s">
         <v>622</v>
       </c>
-      <c r="F41" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G41" s="11" t="s">
+      <c r="F41" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G41" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H41">
@@ -8432,7 +8441,7 @@
       </c>
       <c r="L41" s="1"/>
     </row>
-    <row r="42" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>82</v>
       </c>
@@ -8445,10 +8454,10 @@
       <c r="D42" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="F42" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G42" s="11" t="s">
+      <c r="F42" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G42" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H42">
@@ -8459,7 +8468,7 @@
       </c>
       <c r="L42" s="1"/>
     </row>
-    <row r="43" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>82</v>
       </c>
@@ -8472,13 +8481,13 @@
       <c r="D43" s="1" t="s">
         <v>623</v>
       </c>
-      <c r="E43" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F43" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G43" s="11" t="s">
+      <c r="E43" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G43" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H43">
@@ -8489,7 +8498,7 @@
       </c>
       <c r="L43" s="1"/>
     </row>
-    <row r="44" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>82</v>
       </c>
@@ -8502,13 +8511,13 @@
       <c r="D44" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="E44" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F44" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G44" s="11" t="s">
+      <c r="E44" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F44" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G44" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H44">
@@ -8518,7 +8527,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>82</v>
       </c>
@@ -8531,13 +8540,13 @@
       <c r="D45" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="E45" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F45" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G45" s="11" t="s">
+      <c r="E45" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F45" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G45" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H45">
@@ -8547,7 +8556,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>82</v>
       </c>
@@ -8560,13 +8569,13 @@
       <c r="D46" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="E46" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F46" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G46" s="11" t="s">
+      <c r="E46" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F46" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G46" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H46">
@@ -8576,7 +8585,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>82</v>
       </c>
@@ -8589,10 +8598,10 @@
       <c r="D47" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="F47" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G47" s="11" t="s">
+      <c r="F47" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G47" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H47">
@@ -8602,7 +8611,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>82</v>
       </c>
@@ -8615,10 +8624,10 @@
       <c r="D48" s="1" t="s">
         <v>624</v>
       </c>
-      <c r="F48" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G48" s="11" t="s">
+      <c r="F48" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G48" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H48">
@@ -8628,7 +8637,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>82</v>
       </c>
@@ -8641,13 +8650,13 @@
       <c r="D49" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="E49" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F49" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G49" s="11" t="s">
+      <c r="E49" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F49" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G49" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H49">
@@ -8657,7 +8666,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>82</v>
       </c>
@@ -8670,10 +8679,10 @@
       <c r="D50" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="F50" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G50" s="11" t="s">
+      <c r="F50" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G50" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H50">
@@ -8683,7 +8692,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>82</v>
       </c>
@@ -8696,10 +8705,10 @@
       <c r="D51" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="F51" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G51" s="11" t="s">
+      <c r="F51" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G51" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H51">
@@ -8709,7 +8718,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>82</v>
       </c>
@@ -8722,10 +8731,10 @@
       <c r="D52" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="F52" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G52" s="11" t="s">
+      <c r="F52" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G52" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H52">
@@ -8735,7 +8744,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>82</v>
       </c>
@@ -8748,10 +8757,10 @@
       <c r="D53" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="F53" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G53" s="11" t="s">
+      <c r="F53" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G53" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H53">
@@ -8761,7 +8770,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>82</v>
       </c>
@@ -8774,10 +8783,10 @@
       <c r="D54" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="F54" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G54" s="11" t="s">
+      <c r="F54" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G54" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H54">
@@ -8787,7 +8796,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>82</v>
       </c>
@@ -8800,10 +8809,10 @@
       <c r="D55" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="F55" s="9" t="s">
+      <c r="F55" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="G55" s="11" t="s">
+      <c r="G55" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H55">
@@ -8813,7 +8822,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>82</v>
       </c>
@@ -8826,10 +8835,10 @@
       <c r="D56" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="F56" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G56" s="11" t="s">
+      <c r="F56" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G56" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H56">
@@ -8839,7 +8848,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>82</v>
       </c>
@@ -8852,10 +8861,10 @@
       <c r="D57" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="F57" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G57" s="11" t="s">
+      <c r="F57" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G57" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H57">
@@ -8865,7 +8874,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>82</v>
       </c>
@@ -8878,10 +8887,10 @@
       <c r="D58" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="F58" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G58" s="11" t="s">
+      <c r="F58" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G58" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H58">
@@ -8918,26 +8927,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD1F15E1-4B2E-B146-8F87-F6916FEB3589}">
   <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="80.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.1640625" style="9" customWidth="1"/>
-    <col min="7" max="7" width="8.1640625" style="11" customWidth="1"/>
+    <col min="1" max="1" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="80.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.125" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.25" style="8" customWidth="1"/>
+    <col min="7" max="7" width="12.875" style="10" customWidth="1"/>
     <col min="8" max="8" width="7" customWidth="1"/>
-    <col min="9" max="9" width="9.6640625" customWidth="1"/>
-    <col min="10" max="10" width="8.83203125" customWidth="1"/>
-    <col min="12" max="12" width="42.1640625" customWidth="1"/>
+    <col min="9" max="9" width="9.625" customWidth="1"/>
+    <col min="10" max="10" width="8.875" customWidth="1"/>
+    <col min="12" max="12" width="42.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -8950,13 +8959,13 @@
       <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="9" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="3" t="s">
@@ -8975,7 +8984,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>197</v>
       </c>
@@ -8988,13 +8997,13 @@
       <c r="D2" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="11" t="s">
+      <c r="E2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H2">
@@ -9002,7 +9011,7 @@
       </c>
       <c r="L2" s="1"/>
     </row>
-    <row r="3" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>197</v>
       </c>
@@ -9015,13 +9024,13 @@
       <c r="D3" s="1" t="s">
         <v>628</v>
       </c>
-      <c r="E3" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="11" t="s">
+      <c r="E3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H3">
@@ -9032,7 +9041,7 @@
       </c>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>197</v>
       </c>
@@ -9045,13 +9054,13 @@
       <c r="D4" s="1" t="s">
         <v>629</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="11" t="s">
+      <c r="E4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H4">
@@ -9062,7 +9071,7 @@
       </c>
       <c r="L4" s="1"/>
     </row>
-    <row r="5" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>197</v>
       </c>
@@ -9075,13 +9084,13 @@
       <c r="D5" s="1" t="s">
         <v>625</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="11" t="s">
+      <c r="E5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H5">
@@ -9092,7 +9101,7 @@
       </c>
       <c r="L5" s="1"/>
     </row>
-    <row r="6" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>197</v>
       </c>
@@ -9105,10 +9114,10 @@
       <c r="D6" s="1" t="s">
         <v>630</v>
       </c>
-      <c r="F6" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="11" t="s">
+      <c r="F6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H6">
@@ -9119,7 +9128,7 @@
       </c>
       <c r="L6" s="1"/>
     </row>
-    <row r="7" spans="1:12" ht="85" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>197</v>
       </c>
@@ -9132,13 +9141,13 @@
       <c r="D7" s="1" t="s">
         <v>631</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="11" t="s">
+      <c r="E7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H7">
@@ -9149,7 +9158,7 @@
       </c>
       <c r="L7" s="1"/>
     </row>
-    <row r="8" spans="1:12" ht="68" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" ht="63" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>197</v>
       </c>
@@ -9162,13 +9171,13 @@
       <c r="D8" s="1" t="s">
         <v>632</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="16" t="s">
         <v>207</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="17" t="s">
         <v>208</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="G8" s="18" t="s">
         <v>209</v>
       </c>
       <c r="H8">
@@ -9179,7 +9188,7 @@
       </c>
       <c r="L8" s="1"/>
     </row>
-    <row r="9" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>197</v>
       </c>
@@ -9192,10 +9201,10 @@
       <c r="D9" s="1" t="s">
         <v>626</v>
       </c>
-      <c r="F9" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" s="11" t="s">
+      <c r="F9" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H9">
@@ -9203,7 +9212,7 @@
       </c>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>197</v>
       </c>
@@ -9216,10 +9225,10 @@
       <c r="D10" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="F10" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="11" t="s">
+      <c r="F10" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H10">
@@ -9230,7 +9239,7 @@
       </c>
       <c r="L10" s="1"/>
     </row>
-    <row r="11" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>197</v>
       </c>
@@ -9243,13 +9252,13 @@
       <c r="D11" s="1" t="s">
         <v>633</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" s="11" t="s">
+      <c r="E11" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H11">
@@ -9260,7 +9269,7 @@
       </c>
       <c r="L11" s="1"/>
     </row>
-    <row r="12" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>197</v>
       </c>
@@ -9273,13 +9282,13 @@
       <c r="D12" s="1" t="s">
         <v>634</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" s="11" t="s">
+      <c r="E12" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H12">
@@ -9290,7 +9299,7 @@
       </c>
       <c r="L12" s="1"/>
     </row>
-    <row r="13" spans="1:12" ht="68" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>197</v>
       </c>
@@ -9303,13 +9312,13 @@
       <c r="D13" s="1" t="s">
         <v>635</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" s="11" t="s">
+      <c r="E13" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H13">
@@ -9320,7 +9329,7 @@
       </c>
       <c r="L13" s="1"/>
     </row>
-    <row r="14" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>197</v>
       </c>
@@ -9333,13 +9342,13 @@
       <c r="D14" s="1" t="s">
         <v>627</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" s="11" t="s">
+      <c r="E14" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H14">
@@ -9350,7 +9359,7 @@
       </c>
       <c r="L14" s="1"/>
     </row>
-    <row r="15" spans="1:12" ht="85" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>197</v>
       </c>
@@ -9363,13 +9372,13 @@
       <c r="D15" s="1" t="s">
         <v>636</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15" s="11" t="s">
+      <c r="E15" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H15">
@@ -9380,7 +9389,7 @@
       </c>
       <c r="L15" s="1"/>
     </row>
-    <row r="16" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>197</v>
       </c>
@@ -9393,10 +9402,10 @@
       <c r="D16" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="F16" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" s="11" t="s">
+      <c r="F16" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H16">
@@ -9407,7 +9416,7 @@
       </c>
       <c r="L16" s="1"/>
     </row>
-    <row r="17" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>197</v>
       </c>
@@ -9420,10 +9429,10 @@
       <c r="D17" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="F17" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" s="11" t="s">
+      <c r="F17" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H17">
@@ -9431,7 +9440,7 @@
       </c>
       <c r="L17" s="1"/>
     </row>
-    <row r="18" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>197</v>
       </c>
@@ -9444,10 +9453,10 @@
       <c r="D18" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="F18" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G18" s="11" t="s">
+      <c r="F18" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H18">
@@ -9455,7 +9464,7 @@
       </c>
       <c r="L18" s="1"/>
     </row>
-    <row r="19" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>197</v>
       </c>
@@ -9468,7 +9477,7 @@
       <c r="D19" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="G19" s="11" t="s">
+      <c r="G19" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H19">
@@ -9479,7 +9488,7 @@
       </c>
       <c r="L19" s="1"/>
     </row>
-    <row r="20" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>197</v>
       </c>
@@ -9492,7 +9501,7 @@
       <c r="D20" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="G20" s="11" t="s">
+      <c r="G20" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H20">
@@ -9503,7 +9512,7 @@
       </c>
       <c r="L20" s="1"/>
     </row>
-    <row r="21" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>197</v>
       </c>
@@ -9516,13 +9525,13 @@
       <c r="D21" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="E21" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F21" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G21" s="11" t="s">
+      <c r="E21" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H21">
@@ -9530,70 +9539,70 @@
       </c>
       <c r="L21" s="1"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L22" s="1"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L23" s="1"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L24" s="1"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L25" s="1"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L26" s="1"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L27" s="1"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L28" s="1"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L29" s="1"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L30" s="1"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L31" s="1"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L32" s="1"/>
     </row>
-    <row r="33" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L33" s="1"/>
     </row>
-    <row r="34" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L34" s="1"/>
     </row>
-    <row r="35" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="35" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L35" s="1"/>
     </row>
-    <row r="36" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="36" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L36" s="1"/>
     </row>
-    <row r="37" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L37" s="1"/>
     </row>
-    <row r="38" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L38" s="1"/>
     </row>
-    <row r="39" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L39" s="1"/>
     </row>
-    <row r="40" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="40" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L40" s="1"/>
     </row>
-    <row r="41" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="41" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L41" s="1"/>
     </row>
-    <row r="42" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L42" s="1"/>
     </row>
-    <row r="43" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="43" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L43" s="1"/>
     </row>
   </sheetData>
@@ -9627,21 +9636,21 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="80.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.1640625" style="9" customWidth="1"/>
-    <col min="7" max="7" width="8.1640625" style="11" customWidth="1"/>
+    <col min="1" max="1" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="80.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.375" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.125" style="8" customWidth="1"/>
+    <col min="7" max="7" width="8.125" style="10" customWidth="1"/>
     <col min="8" max="8" width="7" customWidth="1"/>
-    <col min="9" max="9" width="8.1640625" customWidth="1"/>
-    <col min="12" max="12" width="42.1640625" customWidth="1"/>
+    <col min="9" max="9" width="8.125" customWidth="1"/>
+    <col min="12" max="12" width="42.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -9654,13 +9663,13 @@
       <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="9" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="3" t="s">
@@ -9679,7 +9688,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>233</v>
       </c>
@@ -9692,13 +9701,13 @@
       <c r="D2" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="11" t="s">
+      <c r="E2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H2">
@@ -9706,7 +9715,7 @@
       </c>
       <c r="L2" s="1"/>
     </row>
-    <row r="3" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>233</v>
       </c>
@@ -9719,13 +9728,13 @@
       <c r="D3" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="E3" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="11" t="s">
+      <c r="E3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H3">
@@ -9733,7 +9742,7 @@
       </c>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="1:12" ht="85" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>233</v>
       </c>
@@ -9746,13 +9755,13 @@
       <c r="D4" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="11" t="s">
+      <c r="E4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H4">
@@ -9760,7 +9769,7 @@
       </c>
       <c r="L4" s="1"/>
     </row>
-    <row r="5" spans="1:12" ht="85" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>233</v>
       </c>
@@ -9773,13 +9782,13 @@
       <c r="D5" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="11" t="s">
+      <c r="E5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H5">
@@ -9787,7 +9796,7 @@
       </c>
       <c r="L5" s="1"/>
     </row>
-    <row r="6" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>233</v>
       </c>
@@ -9800,13 +9809,13 @@
       <c r="D6" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="11" t="s">
+      <c r="E6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H6">
@@ -9814,7 +9823,7 @@
       </c>
       <c r="L6" s="1"/>
     </row>
-    <row r="7" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>233</v>
       </c>
@@ -9827,13 +9836,13 @@
       <c r="D7" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="11" t="s">
+      <c r="E7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H7">
@@ -9841,7 +9850,7 @@
       </c>
       <c r="L7" s="1"/>
     </row>
-    <row r="8" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>233</v>
       </c>
@@ -9854,13 +9863,13 @@
       <c r="D8" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="11" t="s">
+      <c r="E8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H8">
@@ -9868,7 +9877,7 @@
       </c>
       <c r="L8" s="1"/>
     </row>
-    <row r="9" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>233</v>
       </c>
@@ -9881,13 +9890,13 @@
       <c r="D9" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" s="11" t="s">
+      <c r="E9" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H9">
@@ -9895,7 +9904,7 @@
       </c>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>233</v>
       </c>
@@ -9908,13 +9917,13 @@
       <c r="D10" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="11" t="s">
+      <c r="E10" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H10">
@@ -9922,7 +9931,7 @@
       </c>
       <c r="L10" s="1"/>
     </row>
-    <row r="11" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>233</v>
       </c>
@@ -9935,10 +9944,10 @@
       <c r="D11" s="1" t="s">
         <v>557</v>
       </c>
-      <c r="F11" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" s="11" t="s">
+      <c r="F11" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H11">
@@ -9946,100 +9955,100 @@
       </c>
       <c r="L11" s="1"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L12" s="1"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L13" s="1"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L14" s="1"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L15" s="1"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L16" s="1"/>
     </row>
-    <row r="17" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L17" s="1"/>
     </row>
-    <row r="18" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L18" s="1"/>
     </row>
-    <row r="19" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L19" s="1"/>
     </row>
-    <row r="20" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L20" s="1"/>
     </row>
-    <row r="21" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L21" s="1"/>
     </row>
-    <row r="22" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L22" s="1"/>
     </row>
-    <row r="23" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L23" s="1"/>
     </row>
-    <row r="24" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L24" s="1"/>
     </row>
-    <row r="25" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L25" s="1"/>
     </row>
-    <row r="26" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L26" s="1"/>
     </row>
-    <row r="27" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L27" s="1"/>
     </row>
-    <row r="28" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L28" s="1"/>
     </row>
-    <row r="29" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L29" s="1"/>
     </row>
-    <row r="30" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L30" s="1"/>
     </row>
-    <row r="31" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L31" s="1"/>
     </row>
-    <row r="32" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L32" s="1"/>
     </row>
-    <row r="33" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L33" s="1"/>
     </row>
-    <row r="34" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L34" s="1"/>
     </row>
-    <row r="35" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="35" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L35" s="1"/>
     </row>
-    <row r="36" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="36" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L36" s="1"/>
     </row>
-    <row r="37" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L37" s="1"/>
     </row>
-    <row r="38" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L38" s="1"/>
     </row>
-    <row r="39" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L39" s="1"/>
     </row>
-    <row r="40" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="40" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L40" s="1"/>
     </row>
-    <row r="41" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="41" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L41" s="1"/>
     </row>
-    <row r="42" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L42" s="1"/>
     </row>
-    <row r="43" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="43" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L43" s="1"/>
     </row>
   </sheetData>
@@ -10073,21 +10082,21 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="80.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.1640625" style="9" customWidth="1"/>
-    <col min="7" max="7" width="8.1640625" style="11" customWidth="1"/>
+    <col min="1" max="1" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="80.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.375" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.125" style="8" customWidth="1"/>
+    <col min="7" max="7" width="8.125" style="10" customWidth="1"/>
     <col min="8" max="8" width="7" customWidth="1"/>
-    <col min="9" max="9" width="9.6640625" customWidth="1"/>
-    <col min="12" max="12" width="42.1640625" customWidth="1"/>
+    <col min="9" max="9" width="9.625" customWidth="1"/>
+    <col min="12" max="12" width="42.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -10100,13 +10109,13 @@
       <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="9" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="3" t="s">
@@ -10125,7 +10134,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>251</v>
       </c>
@@ -10138,13 +10147,13 @@
       <c r="D2" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="11" t="s">
+      <c r="E2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H2">
@@ -10152,7 +10161,7 @@
       </c>
       <c r="L2" s="1"/>
     </row>
-    <row r="3" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>251</v>
       </c>
@@ -10165,13 +10174,13 @@
       <c r="D3" s="1" t="s">
         <v>578</v>
       </c>
-      <c r="E3" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="11" t="s">
+      <c r="E3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H3">
@@ -10179,7 +10188,7 @@
       </c>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>251</v>
       </c>
@@ -10192,13 +10201,13 @@
       <c r="D4" s="1" t="s">
         <v>579</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="11" t="s">
+      <c r="E4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H4">
@@ -10206,7 +10215,7 @@
       </c>
       <c r="L4" s="1"/>
     </row>
-    <row r="5" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>251</v>
       </c>
@@ -10219,13 +10228,13 @@
       <c r="D5" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="11" t="s">
+      <c r="E5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H5">
@@ -10233,7 +10242,7 @@
       </c>
       <c r="L5" s="1"/>
     </row>
-    <row r="6" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>251</v>
       </c>
@@ -10246,13 +10255,13 @@
       <c r="D6" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="11" t="s">
+      <c r="E6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H6">
@@ -10260,7 +10269,7 @@
       </c>
       <c r="L6" s="1"/>
     </row>
-    <row r="7" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>251</v>
       </c>
@@ -10273,13 +10282,13 @@
       <c r="D7" s="1" t="s">
         <v>581</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="11" t="s">
+      <c r="E7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H7">
@@ -10287,7 +10296,7 @@
       </c>
       <c r="L7" s="1"/>
     </row>
-    <row r="8" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>251</v>
       </c>
@@ -10300,13 +10309,13 @@
       <c r="D8" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="11" t="s">
+      <c r="E8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H8">
@@ -10314,7 +10323,7 @@
       </c>
       <c r="L8" s="1"/>
     </row>
-    <row r="9" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>251</v>
       </c>
@@ -10327,13 +10336,13 @@
       <c r="D9" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" s="11" t="s">
+      <c r="E9" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H9">
@@ -10341,7 +10350,7 @@
       </c>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>251</v>
       </c>
@@ -10354,13 +10363,13 @@
       <c r="D10" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="11" t="s">
+      <c r="E10" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H10">
@@ -10368,7 +10377,7 @@
       </c>
       <c r="L10" s="1"/>
     </row>
-    <row r="11" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>251</v>
       </c>
@@ -10381,13 +10390,13 @@
       <c r="D11" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" s="11" t="s">
+      <c r="E11" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H11">
@@ -10395,7 +10404,7 @@
       </c>
       <c r="L11" s="1"/>
     </row>
-    <row r="12" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>251</v>
       </c>
@@ -10408,13 +10417,13 @@
       <c r="D12" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" s="11" t="s">
+      <c r="E12" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H12">
@@ -10422,7 +10431,7 @@
       </c>
       <c r="L12" s="1"/>
     </row>
-    <row r="13" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>251</v>
       </c>
@@ -10435,13 +10444,13 @@
       <c r="D13" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" s="11" t="s">
+      <c r="E13" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H13">
@@ -10449,7 +10458,7 @@
       </c>
       <c r="L13" s="1"/>
     </row>
-    <row r="14" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>251</v>
       </c>
@@ -10462,13 +10471,13 @@
       <c r="D14" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" s="11" t="s">
+      <c r="E14" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H14">
@@ -10476,7 +10485,7 @@
       </c>
       <c r="L14" s="1"/>
     </row>
-    <row r="15" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>251</v>
       </c>
@@ -10489,13 +10498,13 @@
       <c r="D15" s="1" t="s">
         <v>582</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15" s="11" t="s">
+      <c r="E15" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H15">
@@ -10503,7 +10512,7 @@
       </c>
       <c r="L15" s="1"/>
     </row>
-    <row r="16" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>251</v>
       </c>
@@ -10516,13 +10525,13 @@
       <c r="D16" s="1" t="s">
         <v>583</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" s="11" t="s">
+      <c r="E16" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H16">
@@ -10530,7 +10539,7 @@
       </c>
       <c r="L16" s="1"/>
     </row>
-    <row r="17" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>251</v>
       </c>
@@ -10543,13 +10552,13 @@
       <c r="D17" s="1" t="s">
         <v>584</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" s="11" t="s">
+      <c r="E17" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H17">
@@ -10557,7 +10566,7 @@
       </c>
       <c r="L17" s="1"/>
     </row>
-    <row r="18" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>251</v>
       </c>
@@ -10570,13 +10579,13 @@
       <c r="D18" s="1" t="s">
         <v>585</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G18" s="11" t="s">
+      <c r="E18" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H18">
@@ -10584,7 +10593,7 @@
       </c>
       <c r="L18" s="1"/>
     </row>
-    <row r="19" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>251</v>
       </c>
@@ -10597,13 +10606,13 @@
       <c r="D19" s="1" t="s">
         <v>586</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" s="11" t="s">
+      <c r="E19" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H19">
@@ -10611,7 +10620,7 @@
       </c>
       <c r="L19" s="1"/>
     </row>
-    <row r="20" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>251</v>
       </c>
@@ -10624,13 +10633,13 @@
       <c r="D20" s="1" t="s">
         <v>587</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" s="11" t="s">
+      <c r="E20" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H20">
@@ -10638,7 +10647,7 @@
       </c>
       <c r="L20" s="1"/>
     </row>
-    <row r="21" spans="1:12" ht="85" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>251</v>
       </c>
@@ -10651,13 +10660,13 @@
       <c r="D21" s="1" t="s">
         <v>588</v>
       </c>
-      <c r="E21" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F21" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G21" s="11" t="s">
+      <c r="E21" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H21">
@@ -10665,7 +10674,7 @@
       </c>
       <c r="L21" s="1"/>
     </row>
-    <row r="22" spans="1:12" ht="68" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>251</v>
       </c>
@@ -10678,13 +10687,13 @@
       <c r="D22" s="1" t="s">
         <v>589</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G22" s="11" t="s">
+      <c r="E22" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H22">
@@ -10692,7 +10701,7 @@
       </c>
       <c r="L22" s="1"/>
     </row>
-    <row r="23" spans="1:12" ht="68" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>251</v>
       </c>
@@ -10705,13 +10714,13 @@
       <c r="D23" s="1" t="s">
         <v>590</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F23" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G23" s="11" t="s">
+      <c r="E23" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H23">
@@ -10719,7 +10728,7 @@
       </c>
       <c r="L23" s="1"/>
     </row>
-    <row r="24" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>251</v>
       </c>
@@ -10732,13 +10741,13 @@
       <c r="D24" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F24" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G24" s="11" t="s">
+      <c r="E24" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H24">
@@ -10746,7 +10755,7 @@
       </c>
       <c r="L24" s="1"/>
     </row>
-    <row r="25" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>251</v>
       </c>
@@ -10759,10 +10768,10 @@
       <c r="D25" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="F25" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G25" s="11" t="s">
+      <c r="F25" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H25">
@@ -10770,7 +10779,7 @@
       </c>
       <c r="L25" s="1"/>
     </row>
-    <row r="26" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>251</v>
       </c>
@@ -10783,10 +10792,10 @@
       <c r="D26" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="F26" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G26" s="11" t="s">
+      <c r="F26" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H26">
@@ -10794,7 +10803,7 @@
       </c>
       <c r="L26" s="1"/>
     </row>
-    <row r="27" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>251</v>
       </c>
@@ -10807,10 +10816,10 @@
       <c r="D27" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="F27" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G27" s="11" t="s">
+      <c r="F27" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G27" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H27">
@@ -10818,7 +10827,7 @@
       </c>
       <c r="L27" s="1"/>
     </row>
-    <row r="28" spans="1:12" ht="68" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>251</v>
       </c>
@@ -10831,13 +10840,13 @@
       <c r="D28" s="1" t="s">
         <v>591</v>
       </c>
-      <c r="E28" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F28" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G28" s="11" t="s">
+      <c r="E28" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H28">
@@ -10845,7 +10854,7 @@
       </c>
       <c r="L28" s="1"/>
     </row>
-    <row r="29" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>251</v>
       </c>
@@ -10858,13 +10867,13 @@
       <c r="D29" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="E29" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F29" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G29" s="11" t="s">
+      <c r="E29" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H29">
@@ -10872,7 +10881,7 @@
       </c>
       <c r="L29" s="1"/>
     </row>
-    <row r="30" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>251</v>
       </c>
@@ -10885,13 +10894,13 @@
       <c r="D30" s="1" t="s">
         <v>561</v>
       </c>
-      <c r="E30" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F30" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G30" s="11" t="s">
+      <c r="E30" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G30" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H30">
@@ -10899,7 +10908,7 @@
       </c>
       <c r="L30" s="1"/>
     </row>
-    <row r="31" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>251</v>
       </c>
@@ -10912,13 +10921,13 @@
       <c r="D31" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F31" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G31" s="11" t="s">
+      <c r="E31" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G31" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H31">
@@ -10926,40 +10935,40 @@
       </c>
       <c r="L31" s="1"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L32" s="1"/>
     </row>
-    <row r="33" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L33" s="1"/>
     </row>
-    <row r="34" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L34" s="1"/>
     </row>
-    <row r="35" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="35" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L35" s="1"/>
     </row>
-    <row r="36" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="36" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L36" s="1"/>
     </row>
-    <row r="37" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L37" s="1"/>
     </row>
-    <row r="38" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L38" s="1"/>
     </row>
-    <row r="39" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L39" s="1"/>
     </row>
-    <row r="40" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="40" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L40" s="1"/>
     </row>
-    <row r="41" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="41" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L41" s="1"/>
     </row>
-    <row r="42" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L42" s="1"/>
     </row>
-    <row r="43" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="43" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L43" s="1"/>
     </row>
   </sheetData>
@@ -10993,21 +11002,21 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="80.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.1640625" style="9" customWidth="1"/>
-    <col min="7" max="7" width="8.1640625" style="11" customWidth="1"/>
+    <col min="1" max="1" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="80.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.375" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.125" style="8" customWidth="1"/>
+    <col min="7" max="7" width="8.125" style="10" customWidth="1"/>
     <col min="8" max="8" width="7" customWidth="1"/>
     <col min="9" max="9" width="9" customWidth="1"/>
-    <col min="12" max="12" width="42.1640625" customWidth="1"/>
+    <col min="12" max="12" width="42.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -11020,13 +11029,13 @@
       <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="9" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="3" t="s">
@@ -11045,7 +11054,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>289</v>
       </c>
@@ -11058,10 +11067,10 @@
       <c r="D2" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="F2" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="11" t="s">
+      <c r="F2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H2">
@@ -11069,7 +11078,7 @@
       </c>
       <c r="L2" s="1"/>
     </row>
-    <row r="3" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>289</v>
       </c>
@@ -11082,10 +11091,10 @@
       <c r="D3" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="F3" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="11" t="s">
+      <c r="F3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H3">
@@ -11093,7 +11102,7 @@
       </c>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>289</v>
       </c>
@@ -11106,10 +11115,10 @@
       <c r="D4" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="F4" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="11" t="s">
+      <c r="F4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H4">
@@ -11117,7 +11126,7 @@
       </c>
       <c r="L4" s="1"/>
     </row>
-    <row r="5" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>289</v>
       </c>
@@ -11130,13 +11139,13 @@
       <c r="D5" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="11" t="s">
+      <c r="E5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H5">
@@ -11144,7 +11153,7 @@
       </c>
       <c r="L5" s="1"/>
     </row>
-    <row r="6" spans="1:12" ht="68" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>289</v>
       </c>
@@ -11157,10 +11166,10 @@
       <c r="D6" s="1" t="s">
         <v>592</v>
       </c>
-      <c r="F6" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="11" t="s">
+      <c r="F6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H6">
@@ -11168,7 +11177,7 @@
       </c>
       <c r="L6" s="1"/>
     </row>
-    <row r="7" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>289</v>
       </c>
@@ -11181,10 +11190,10 @@
       <c r="D7" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="F7" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="11" t="s">
+      <c r="F7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H7">
@@ -11192,7 +11201,7 @@
       </c>
       <c r="L7" s="1"/>
     </row>
-    <row r="8" spans="1:12" ht="85" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>289</v>
       </c>
@@ -11205,10 +11214,10 @@
       <c r="D8" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="F8" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="11" t="s">
+      <c r="F8" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H8">
@@ -11216,7 +11225,7 @@
       </c>
       <c r="L8" s="1"/>
     </row>
-    <row r="9" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>289</v>
       </c>
@@ -11229,10 +11238,10 @@
       <c r="D9" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="F9" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" s="11" t="s">
+      <c r="F9" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H9">
@@ -11240,7 +11249,7 @@
       </c>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>289</v>
       </c>
@@ -11253,10 +11262,10 @@
       <c r="D10" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="F10" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="11" t="s">
+      <c r="F10" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H10">
@@ -11264,7 +11273,7 @@
       </c>
       <c r="L10" s="1"/>
     </row>
-    <row r="11" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>289</v>
       </c>
@@ -11277,7 +11286,7 @@
       <c r="D11" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="G11" s="11" t="s">
+      <c r="G11" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H11">
@@ -11285,7 +11294,7 @@
       </c>
       <c r="L11" s="1"/>
     </row>
-    <row r="12" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>289</v>
       </c>
@@ -11298,7 +11307,7 @@
       <c r="D12" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="G12" s="11" t="s">
+      <c r="G12" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H12">
@@ -11306,7 +11315,7 @@
       </c>
       <c r="L12" s="1"/>
     </row>
-    <row r="13" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>289</v>
       </c>
@@ -11319,10 +11328,10 @@
       <c r="D13" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="F13" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" s="11" t="s">
+      <c r="F13" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H13">
@@ -11330,7 +11339,7 @@
       </c>
       <c r="L13" s="1"/>
     </row>
-    <row r="14" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>289</v>
       </c>
@@ -11343,10 +11352,10 @@
       <c r="D14" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="F14" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" s="11" t="s">
+      <c r="F14" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H14">
@@ -11354,7 +11363,7 @@
       </c>
       <c r="L14" s="1"/>
     </row>
-    <row r="15" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>289</v>
       </c>
@@ -11367,7 +11376,7 @@
       <c r="D15" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="G15" s="11" t="s">
+      <c r="G15" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H15">
@@ -11375,7 +11384,7 @@
       </c>
       <c r="L15" s="1"/>
     </row>
-    <row r="16" spans="1:12" ht="68" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>289</v>
       </c>
@@ -11388,10 +11397,10 @@
       <c r="D16" s="1" t="s">
         <v>594</v>
       </c>
-      <c r="F16" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" s="11" t="s">
+      <c r="F16" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H16">
@@ -11399,7 +11408,7 @@
       </c>
       <c r="L16" s="1"/>
     </row>
-    <row r="17" spans="1:12" ht="68" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>289</v>
       </c>
@@ -11412,10 +11421,10 @@
       <c r="D17" s="1" t="s">
         <v>595</v>
       </c>
-      <c r="F17" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" s="11" t="s">
+      <c r="F17" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H17">
@@ -11423,82 +11432,82 @@
       </c>
       <c r="L17" s="1"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L18" s="1"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L19" s="1"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L20" s="1"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L21" s="1"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L22" s="1"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L23" s="1"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L24" s="1"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L25" s="1"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L26" s="1"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L27" s="1"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L28" s="1"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L29" s="1"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L30" s="1"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L31" s="1"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L32" s="1"/>
     </row>
-    <row r="33" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L33" s="1"/>
     </row>
-    <row r="34" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L34" s="1"/>
     </row>
-    <row r="35" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="35" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L35" s="1"/>
     </row>
-    <row r="36" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="36" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L36" s="1"/>
     </row>
-    <row r="37" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L37" s="1"/>
     </row>
-    <row r="38" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L38" s="1"/>
     </row>
-    <row r="39" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L39" s="1"/>
     </row>
-    <row r="40" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="40" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L40" s="1"/>
     </row>
-    <row r="41" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="41" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L41" s="1"/>
     </row>
-    <row r="42" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L42" s="1"/>
     </row>
-    <row r="43" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="43" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L43" s="1"/>
     </row>
   </sheetData>
@@ -11532,21 +11541,21 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="80.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.1640625" style="9" customWidth="1"/>
-    <col min="7" max="7" width="8.1640625" style="11" customWidth="1"/>
+    <col min="1" max="1" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="80.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.375" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.125" style="8" customWidth="1"/>
+    <col min="7" max="7" width="8.125" style="10" customWidth="1"/>
     <col min="8" max="8" width="7" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" customWidth="1"/>
-    <col min="12" max="12" width="42.1640625" customWidth="1"/>
+    <col min="9" max="9" width="10.375" customWidth="1"/>
+    <col min="12" max="12" width="42.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -11559,13 +11568,13 @@
       <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="9" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="3" t="s">
@@ -11584,7 +11593,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>315</v>
       </c>
@@ -11597,13 +11606,13 @@
       <c r="D2" s="1" t="s">
         <v>596</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="11" t="s">
+      <c r="E2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H2">
@@ -11611,7 +11620,7 @@
       </c>
       <c r="L2" s="1"/>
     </row>
-    <row r="3" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>315</v>
       </c>
@@ -11624,13 +11633,13 @@
       <c r="D3" s="1" t="s">
         <v>597</v>
       </c>
-      <c r="E3" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="11" t="s">
+      <c r="E3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H3">
@@ -11638,7 +11647,7 @@
       </c>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>315</v>
       </c>
@@ -11651,10 +11660,10 @@
       <c r="D4" s="1" t="s">
         <v>598</v>
       </c>
-      <c r="F4" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="11" t="s">
+      <c r="F4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H4">
@@ -11662,7 +11671,7 @@
       </c>
       <c r="L4" s="1"/>
     </row>
-    <row r="5" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>315</v>
       </c>
@@ -11675,10 +11684,10 @@
       <c r="D5" s="1" t="s">
         <v>599</v>
       </c>
-      <c r="F5" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="11" t="s">
+      <c r="F5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H5">
@@ -11686,7 +11695,7 @@
       </c>
       <c r="L5" s="1"/>
     </row>
-    <row r="6" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>315</v>
       </c>
@@ -11699,10 +11708,10 @@
       <c r="D6" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="F6" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="11" t="s">
+      <c r="F6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H6">
@@ -11710,7 +11719,7 @@
       </c>
       <c r="L6" s="1"/>
     </row>
-    <row r="7" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>315</v>
       </c>
@@ -11723,10 +11732,10 @@
       <c r="D7" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="F7" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="11" t="s">
+      <c r="F7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H7">
@@ -11734,7 +11743,7 @@
       </c>
       <c r="L7" s="1"/>
     </row>
-    <row r="8" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>315</v>
       </c>
@@ -11747,10 +11756,10 @@
       <c r="D8" s="1" t="s">
         <v>600</v>
       </c>
-      <c r="F8" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="11" t="s">
+      <c r="F8" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H8">
@@ -11758,7 +11767,7 @@
       </c>
       <c r="L8" s="1"/>
     </row>
-    <row r="9" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>315</v>
       </c>
@@ -11771,10 +11780,10 @@
       <c r="D9" s="1" t="s">
         <v>601</v>
       </c>
-      <c r="F9" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" s="11" t="s">
+      <c r="F9" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H9">
@@ -11782,7 +11791,7 @@
       </c>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>315</v>
       </c>
@@ -11795,10 +11804,10 @@
       <c r="D10" s="1" t="s">
         <v>602</v>
       </c>
-      <c r="F10" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="11" t="s">
+      <c r="F10" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H10">
@@ -11806,7 +11815,7 @@
       </c>
       <c r="L10" s="1"/>
     </row>
-    <row r="11" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>315</v>
       </c>
@@ -11819,15 +11828,15 @@
       <c r="D11" s="1" t="s">
         <v>603</v>
       </c>
-      <c r="F11" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" s="11" t="s">
+      <c r="F11" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="10" t="s">
         <v>12</v>
       </c>
       <c r="L11" s="1"/>
     </row>
-    <row r="12" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>315</v>
       </c>
@@ -11840,13 +11849,13 @@
       <c r="D12" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" s="11" t="s">
+      <c r="E12" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H12">
@@ -11854,7 +11863,7 @@
       </c>
       <c r="L12" s="1"/>
     </row>
-    <row r="13" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>315</v>
       </c>
@@ -11867,10 +11876,10 @@
       <c r="D13" s="1" t="s">
         <v>605</v>
       </c>
-      <c r="F13" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" s="11" t="s">
+      <c r="F13" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H13">
@@ -11878,7 +11887,7 @@
       </c>
       <c r="L13" s="1"/>
     </row>
-    <row r="14" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>315</v>
       </c>
@@ -11891,10 +11900,10 @@
       <c r="D14" s="1" t="s">
         <v>606</v>
       </c>
-      <c r="F14" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" s="11" t="s">
+      <c r="F14" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H14">
@@ -11902,91 +11911,91 @@
       </c>
       <c r="L14" s="1"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L15" s="1"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L16" s="1"/>
     </row>
-    <row r="17" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L17" s="1"/>
     </row>
-    <row r="18" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L18" s="1"/>
     </row>
-    <row r="19" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L19" s="1"/>
     </row>
-    <row r="20" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L20" s="1"/>
     </row>
-    <row r="21" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L21" s="1"/>
     </row>
-    <row r="22" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L22" s="1"/>
     </row>
-    <row r="23" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L23" s="1"/>
     </row>
-    <row r="24" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L24" s="1"/>
     </row>
-    <row r="25" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L25" s="1"/>
     </row>
-    <row r="26" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L26" s="1"/>
     </row>
-    <row r="27" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L27" s="1"/>
     </row>
-    <row r="28" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L28" s="1"/>
     </row>
-    <row r="29" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L29" s="1"/>
     </row>
-    <row r="30" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L30" s="1"/>
     </row>
-    <row r="31" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L31" s="1"/>
     </row>
-    <row r="32" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L32" s="1"/>
     </row>
-    <row r="33" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L33" s="1"/>
     </row>
-    <row r="34" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L34" s="1"/>
     </row>
-    <row r="35" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="35" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L35" s="1"/>
     </row>
-    <row r="36" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="36" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L36" s="1"/>
     </row>
-    <row r="37" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L37" s="1"/>
     </row>
-    <row r="38" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L38" s="1"/>
     </row>
-    <row r="39" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L39" s="1"/>
     </row>
-    <row r="40" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="40" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L40" s="1"/>
     </row>
-    <row r="41" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="41" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L41" s="1"/>
     </row>
-    <row r="42" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L42" s="1"/>
     </row>
-    <row r="43" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="43" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L43" s="1"/>
     </row>
   </sheetData>
@@ -12020,21 +12029,21 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="80.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.1640625" style="9" customWidth="1"/>
-    <col min="7" max="7" width="8.1640625" style="11" customWidth="1"/>
+    <col min="1" max="1" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="80.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.375" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.125" style="8" customWidth="1"/>
+    <col min="7" max="7" width="8.125" style="10" customWidth="1"/>
     <col min="8" max="8" width="7" customWidth="1"/>
     <col min="9" max="9" width="7.5" customWidth="1"/>
-    <col min="12" max="12" width="42.1640625" customWidth="1"/>
+    <col min="12" max="12" width="42.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -12047,13 +12056,13 @@
       <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="9" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="3" t="s">
@@ -12072,7 +12081,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>329</v>
       </c>
@@ -12085,10 +12094,10 @@
       <c r="D2" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="F2" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="11" t="s">
+      <c r="F2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H2">
@@ -12096,7 +12105,7 @@
       </c>
       <c r="L2" s="1"/>
     </row>
-    <row r="3" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>329</v>
       </c>
@@ -12109,10 +12118,10 @@
       <c r="D3" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="F3" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="11" t="s">
+      <c r="F3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H3">
@@ -12120,7 +12129,7 @@
       </c>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>329</v>
       </c>
@@ -12133,10 +12142,10 @@
       <c r="D4" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="F4" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="11" t="s">
+      <c r="F4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H4">
@@ -12144,7 +12153,7 @@
       </c>
       <c r="L4" s="1"/>
     </row>
-    <row r="5" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>329</v>
       </c>
@@ -12157,10 +12166,10 @@
       <c r="D5" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="F5" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="11" t="s">
+      <c r="F5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H5">
@@ -12168,7 +12177,7 @@
       </c>
       <c r="L5" s="1"/>
     </row>
-    <row r="6" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>329</v>
       </c>
@@ -12181,7 +12190,7 @@
       <c r="D6" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="G6" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H6">
@@ -12189,7 +12198,7 @@
       </c>
       <c r="L6" s="1"/>
     </row>
-    <row r="7" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>329</v>
       </c>
@@ -12202,7 +12211,7 @@
       <c r="D7" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="G7" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H7">
@@ -12210,7 +12219,7 @@
       </c>
       <c r="L7" s="1"/>
     </row>
-    <row r="8" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>329</v>
       </c>
@@ -12223,13 +12232,13 @@
       <c r="D8" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="11" t="s">
+      <c r="E8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H8">
@@ -12237,7 +12246,7 @@
       </c>
       <c r="L8" s="1"/>
     </row>
-    <row r="9" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>329</v>
       </c>
@@ -12250,13 +12259,13 @@
       <c r="D9" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" s="11" t="s">
+      <c r="E9" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H9">
@@ -12264,7 +12273,7 @@
       </c>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>329</v>
       </c>
@@ -12277,13 +12286,13 @@
       <c r="D10" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="11" t="s">
+      <c r="E10" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H10">
@@ -12291,7 +12300,7 @@
       </c>
       <c r="L10" s="1"/>
     </row>
-    <row r="11" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>329</v>
       </c>
@@ -12304,13 +12313,13 @@
       <c r="D11" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" s="11" t="s">
+      <c r="E11" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H11">
@@ -12318,7 +12327,7 @@
       </c>
       <c r="L11" s="1"/>
     </row>
-    <row r="12" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>329</v>
       </c>
@@ -12331,13 +12340,13 @@
       <c r="D12" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" s="11" t="s">
+      <c r="E12" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H12">
@@ -12345,7 +12354,7 @@
       </c>
       <c r="L12" s="1"/>
     </row>
-    <row r="13" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>329</v>
       </c>
@@ -12358,13 +12367,13 @@
       <c r="D13" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" s="11" t="s">
+      <c r="E13" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H13">
@@ -12372,7 +12381,7 @@
       </c>
       <c r="L13" s="1"/>
     </row>
-    <row r="14" spans="1:12" ht="68" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>329</v>
       </c>
@@ -12385,13 +12394,13 @@
       <c r="D14" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" s="11" t="s">
+      <c r="E14" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H14">
@@ -12399,7 +12408,7 @@
       </c>
       <c r="L14" s="1"/>
     </row>
-    <row r="15" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>329</v>
       </c>
@@ -12412,10 +12421,10 @@
       <c r="D15" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="F15" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15" s="11" t="s">
+      <c r="F15" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H15">
@@ -12423,7 +12432,7 @@
       </c>
       <c r="L15" s="1"/>
     </row>
-    <row r="16" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>329</v>
       </c>
@@ -12436,10 +12445,10 @@
       <c r="D16" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="F16" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" s="11" t="s">
+      <c r="F16" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H16">
@@ -12447,7 +12456,7 @@
       </c>
       <c r="L16" s="1"/>
     </row>
-    <row r="17" spans="1:12" ht="68" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>329</v>
       </c>
@@ -12460,10 +12469,10 @@
       <c r="D17" s="1" t="s">
         <v>608</v>
       </c>
-      <c r="F17" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" s="11" t="s">
+      <c r="F17" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H17">
@@ -12471,7 +12480,7 @@
       </c>
       <c r="L17" s="1"/>
     </row>
-    <row r="18" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>329</v>
       </c>
@@ -12484,10 +12493,10 @@
       <c r="D18" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="F18" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G18" s="11" t="s">
+      <c r="F18" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H18">
@@ -12495,79 +12504,79 @@
       </c>
       <c r="L18" s="1"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L19" s="1"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L20" s="1"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L21" s="1"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L22" s="1"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L23" s="1"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L24" s="1"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L25" s="1"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L26" s="1"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L27" s="1"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L28" s="1"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L29" s="1"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L30" s="1"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L31" s="1"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L32" s="1"/>
     </row>
-    <row r="33" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L33" s="1"/>
     </row>
-    <row r="34" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L34" s="1"/>
     </row>
-    <row r="35" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="35" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L35" s="1"/>
     </row>
-    <row r="36" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="36" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L36" s="1"/>
     </row>
-    <row r="37" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L37" s="1"/>
     </row>
-    <row r="38" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L38" s="1"/>
     </row>
-    <row r="39" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L39" s="1"/>
     </row>
-    <row r="40" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="40" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L40" s="1"/>
     </row>
-    <row r="41" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="41" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L41" s="1"/>
     </row>
-    <row r="42" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L42" s="1"/>
     </row>
-    <row r="43" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="43" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L43" s="1"/>
     </row>
   </sheetData>
